--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.60097823687562</v>
+        <v>17.60097823687561</v>
       </c>
       <c r="C2">
-        <v>13.96797964446712</v>
+        <v>13.96797964446711</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.2087416932148</v>
+        <v>12.20874169321479</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.18068926119747</v>
+        <v>21.18068926119742</v>
       </c>
       <c r="H2">
-        <v>17.6790237327941</v>
+        <v>17.67902373279408</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.23274698368621</v>
+        <v>16.2327469836862</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.05622317792996</v>
+        <v>17.05622317792993</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40465786206866</v>
+        <v>16.40465786206864</v>
       </c>
       <c r="C3">
-        <v>12.98962796719972</v>
+        <v>12.9896279671996</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.50247152183712</v>
+        <v>11.50247152183714</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.53652380505256</v>
+        <v>20.53652380505265</v>
       </c>
       <c r="H3">
-        <v>17.44862921581748</v>
+        <v>17.44862921581759</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.16180289392446</v>
+        <v>15.16180289392445</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89305824570162</v>
+        <v>15.89305824570158</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63077911122043</v>
+        <v>15.63077911122046</v>
       </c>
       <c r="C4">
-        <v>12.35858626455374</v>
+        <v>12.35858626455378</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.16152959427815</v>
+        <v>20.16152959427808</v>
       </c>
       <c r="H4">
-        <v>17.32980583681642</v>
+        <v>17.32980583681635</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.47054600152798</v>
+        <v>14.47054600152801</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.1434668221613</v>
+        <v>15.14346682216134</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>15.30541295797937</v>
       </c>
       <c r="C5">
-        <v>12.09368163168266</v>
+        <v>12.09368163168256</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.879496965281</v>
+        <v>10.87949696528102</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>20.01383148390669</v>
+        <v>20.01383148390663</v>
       </c>
       <c r="H5">
-        <v>17.2867942167615</v>
+        <v>17.28679421676142</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.18029805159996</v>
+        <v>14.18029805159991</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.82897548163409</v>
+        <v>14.82897548163406</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.25077877613172</v>
+        <v>15.25077877613171</v>
       </c>
       <c r="C6">
-        <v>12.04922289023943</v>
+        <v>12.0492228902396</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.84923202998135</v>
+        <v>10.84923202998142</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.989613719841</v>
+        <v>19.98961371984091</v>
       </c>
       <c r="H6">
-        <v>17.27997048325212</v>
+        <v>17.27997048325207</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.13158375638418</v>
+        <v>14.13158375638421</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.77620588323053</v>
+        <v>14.77620588323049</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62643176031741</v>
+        <v>15.62643176031743</v>
       </c>
       <c r="C7">
-        <v>12.35504520478743</v>
+        <v>12.35504520478746</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,25 +614,25 @@
         <v>11.05869586409291</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>20.15951704298929</v>
+        <v>20.15951704298921</v>
       </c>
       <c r="H7">
-        <v>17.32920424250588</v>
+        <v>17.3292042425058</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.46666635463356</v>
+        <v>14.46666635463358</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.13926218507859</v>
+        <v>15.13926218507861</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.19657920577486</v>
+        <v>17.1965792057748</v>
       </c>
       <c r="C8">
-        <v>13.63686193882376</v>
+        <v>13.63686193882375</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.96688119992253</v>
+        <v>11.96688119992249</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.95429476166014</v>
+        <v>20.95429476166032</v>
       </c>
       <c r="H8">
-        <v>17.59471696373121</v>
+        <v>17.59471696373139</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.87042394088253</v>
+        <v>15.87042394088248</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.66243252816089</v>
+        <v>16.6624325281609</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96918045852511</v>
+        <v>19.96918045852507</v>
       </c>
       <c r="C9">
-        <v>15.91589811635477</v>
+        <v>15.91589811635486</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.67780489317773</v>
+        <v>22.67780489317771</v>
       </c>
       <c r="H9">
-        <v>18.30729439047496</v>
+        <v>18.30729439047493</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.36037089346455</v>
+        <v>18.36037089346462</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.37484689679457</v>
+        <v>19.37484689679464</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.8280365409081</v>
+        <v>21.82803654090808</v>
       </c>
       <c r="C10">
-        <v>17.45653022338366</v>
+        <v>17.45653022338368</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.0604247376729</v>
+        <v>15.06042473767283</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.0484505089256</v>
+        <v>24.04845050892562</v>
       </c>
       <c r="H10">
-        <v>18.9642528568369</v>
+        <v>18.96425285683693</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.03692149950012</v>
+        <v>20.03692149950014</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.21040344165531</v>
+        <v>21.21040344165527</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.63714451987501</v>
+        <v>22.63714451987506</v>
       </c>
       <c r="C11">
-        <v>18.13066599605387</v>
+        <v>18.13066599605392</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.6832199975192</v>
+        <v>15.68321999751918</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>24.69597552182054</v>
+        <v>24.69597552182059</v>
       </c>
       <c r="H11">
-        <v>19.29560087290048</v>
+        <v>19.29560087290049</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.7683987931138</v>
+        <v>20.76839879311382</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.0138952944137</v>
+        <v>22.01389529441374</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.93848477215756</v>
+        <v>22.93848477215755</v>
       </c>
       <c r="C12">
-        <v>18.38231987206444</v>
+        <v>18.38231987206446</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.91646549982559</v>
+        <v>15.91646549982556</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>24.94478813233853</v>
+        <v>24.94478813233843</v>
       </c>
       <c r="H12">
-        <v>19.42604317055976</v>
+        <v>19.42604317055966</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.04109124334053</v>
+        <v>21.04109124334056</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.31387167277408</v>
+        <v>22.31387167277406</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.87380705398398</v>
+        <v>22.87380705398403</v>
       </c>
       <c r="C13">
-        <v>18.32827933673868</v>
+        <v>18.32827933673861</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.86634325911461</v>
+        <v>15.86634325911465</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>24.89103831608618</v>
+        <v>24.89103831608611</v>
       </c>
       <c r="H13">
-        <v>19.397724260552</v>
+        <v>19.39772426055189</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.98255020545842</v>
+        <v>20.98255020545843</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.24945293280459</v>
+        <v>22.24945293280458</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.66203599736074</v>
+        <v>22.66203599736086</v>
       </c>
       <c r="C14">
-        <v>18.15144108436684</v>
+        <v>18.15144108436698</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.70245979589503</v>
+        <v>15.702459795895</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.7163720723934</v>
+        <v>24.71637207239338</v>
       </c>
       <c r="H14">
-        <v>19.30623112559605</v>
+        <v>19.30623112559595</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.79091845020776</v>
+        <v>20.79091845020787</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.03865898116777</v>
+        <v>22.03865898116781</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.53166847540766</v>
+        <v>22.53166847540779</v>
       </c>
       <c r="C15">
         <v>18.04265700530507</v>
@@ -921,22 +921,22 @@
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.60985948049838</v>
+        <v>24.60985948049837</v>
       </c>
       <c r="H15">
-        <v>19.25084494513793</v>
+        <v>19.25084494513787</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.67298405362506</v>
+        <v>20.67298405362516</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.9089908269139</v>
+        <v>21.90899082691396</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.77444137827594</v>
+        <v>21.7744413782759</v>
       </c>
       <c r="C16">
-        <v>17.41195418027574</v>
+        <v>17.4119541802758</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.01934747647375</v>
+        <v>15.0193474764738</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.00662857834662</v>
+        <v>24.00662857834676</v>
       </c>
       <c r="H16">
-        <v>18.94327727916625</v>
+        <v>18.94327727916639</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.98850519577896</v>
+        <v>19.98850519577895</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.15727934210556</v>
+        <v>21.15727934210559</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.30069311756779</v>
+        <v>21.30069311756783</v>
       </c>
       <c r="C17">
-        <v>17.01834290082083</v>
+        <v>17.01834290082088</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.6571904782836</v>
+        <v>14.65719047828359</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.64281121306971</v>
+        <v>23.64281121306969</v>
       </c>
       <c r="H17">
-        <v>18.76312303999511</v>
+        <v>18.76312303999509</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.56073343077341</v>
+        <v>19.56073343077346</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.68822131919087</v>
+        <v>20.68822131919089</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0247576193501</v>
+        <v>21.02475761935003</v>
       </c>
       <c r="C18">
-        <v>16.78942033108291</v>
+        <v>16.7894203310829</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.44702423488502</v>
+        <v>14.44702423488496</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.43580108345479</v>
+        <v>23.43580108345484</v>
       </c>
       <c r="H18">
-        <v>18.66254338430272</v>
+        <v>18.6625433843028</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.31174199369813</v>
+        <v>19.31174199369807</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.41544929476525</v>
+        <v>20.41544929476519</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93073275137693</v>
+        <v>20.93073275137696</v>
       </c>
       <c r="C19">
-        <v>16.71147082043876</v>
+        <v>16.71147082043882</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.37553909212966</v>
+        <v>14.37553909212965</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
         <v>23.36609317030812</v>
       </c>
       <c r="H19">
-        <v>18.62900223561079</v>
+        <v>18.62900223561078</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.2269261574654</v>
+        <v>19.22692615746542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.35147993025211</v>
+        <v>21.35147993025201</v>
       </c>
       <c r="C20">
-        <v>17.06050363906956</v>
+        <v>17.0605036390696</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.69593397530161</v>
+        <v>14.69593397530157</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>23.68130656648371</v>
+        <v>23.68130656648377</v>
       </c>
       <c r="H20">
-        <v>18.78198401318772</v>
+        <v>18.78198401318787</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.60657436120641</v>
+        <v>19.60657436120632</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.73846033364716</v>
+        <v>20.73846033364713</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.72437370816264</v>
+        <v>22.72437370816263</v>
       </c>
       <c r="C21">
         <v>18.20347936753876</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.75066474248787</v>
+        <v>15.75066474248793</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>24.7675763275769</v>
+        <v>24.76757632757694</v>
       </c>
       <c r="H21">
-        <v>19.3329676154974</v>
+        <v>19.33296761549737</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.10068857797749</v>
+        <v>22.10068857797751</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.59230344430364</v>
+        <v>23.59230344430371</v>
       </c>
       <c r="C22">
-        <v>18.92945878200598</v>
+        <v>18.92945878200605</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.49866520149905</v>
+        <v>25.49866520149903</v>
       </c>
       <c r="H22">
-        <v>19.72217478171743</v>
+        <v>19.72217478171735</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.63324665472951</v>
+        <v>21.63324665472958</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.96612202904552</v>
+        <v>22.96612202904558</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.13168642008033</v>
+        <v>23.13168642008037</v>
       </c>
       <c r="C23">
         <v>18.54383606311496</v>
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.06638409430598</v>
+        <v>16.0663840943059</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.10646814546709</v>
+        <v>25.10646814546715</v>
       </c>
       <c r="H23">
-        <v>19.51168212596021</v>
+        <v>19.51168212596026</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.21600113575368</v>
+        <v>21.2160011357537</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.50641032878487</v>
+        <v>22.50641032878484</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.32853035064797</v>
+        <v>21.32853035064792</v>
       </c>
       <c r="C24">
-        <v>17.04145097759942</v>
+        <v>17.04145097759941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.67842415392137</v>
+        <v>14.67842415392134</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
         <v>23.66389612114629</v>
       </c>
       <c r="H24">
-        <v>18.773447665494</v>
+        <v>18.77344766549404</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.5858592205586</v>
+        <v>19.58585922055855</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.71575696241575</v>
+        <v>20.71575696241572</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25108215871989</v>
+        <v>19.25108215872001</v>
       </c>
       <c r="C25">
-        <v>15.32357197821802</v>
+        <v>15.32357197821809</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.2262053914906</v>
+        <v>13.22620539149062</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>22.193555987269</v>
+        <v>22.19355598726898</v>
       </c>
       <c r="H25">
-        <v>18.09226723979168</v>
+        <v>18.09226723979161</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.7142075122558</v>
+        <v>17.71420751225593</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.66948383858054</v>
+        <v>18.6694838385806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.60097823687561</v>
+        <v>17.60097823687562</v>
       </c>
       <c r="C2">
-        <v>13.96797964446711</v>
+        <v>13.96797964446712</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.20874169321479</v>
+        <v>12.2087416932148</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.18068926119742</v>
+        <v>21.18068926119747</v>
       </c>
       <c r="H2">
-        <v>17.67902373279408</v>
+        <v>17.6790237327941</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.2327469836862</v>
+        <v>16.23274698368621</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.05622317792993</v>
+        <v>17.05622317792996</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40465786206864</v>
+        <v>16.40465786206866</v>
       </c>
       <c r="C3">
-        <v>12.9896279671996</v>
+        <v>12.98962796719972</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.50247152183714</v>
+        <v>11.50247152183712</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.53652380505265</v>
+        <v>20.53652380505256</v>
       </c>
       <c r="H3">
-        <v>17.44862921581759</v>
+        <v>17.44862921581748</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.16180289392445</v>
+        <v>15.16180289392446</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89305824570158</v>
+        <v>15.89305824570162</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63077911122046</v>
+        <v>15.63077911122043</v>
       </c>
       <c r="C4">
-        <v>12.35858626455378</v>
+        <v>12.35858626455374</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.16152959427808</v>
+        <v>20.16152959427815</v>
       </c>
       <c r="H4">
-        <v>17.32980583681635</v>
+        <v>17.32980583681642</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.47054600152801</v>
+        <v>14.47054600152798</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.14346682216134</v>
+        <v>15.1434668221613</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>15.30541295797937</v>
       </c>
       <c r="C5">
-        <v>12.09368163168256</v>
+        <v>12.09368163168266</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.87949696528102</v>
+        <v>10.879496965281</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>20.01383148390663</v>
+        <v>20.01383148390669</v>
       </c>
       <c r="H5">
-        <v>17.28679421676142</v>
+        <v>17.2867942167615</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.18029805159991</v>
+        <v>14.18029805159996</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.82897548163406</v>
+        <v>14.82897548163409</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.25077877613171</v>
+        <v>15.25077877613172</v>
       </c>
       <c r="C6">
-        <v>12.0492228902396</v>
+        <v>12.04922289023943</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.84923202998142</v>
+        <v>10.84923202998135</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.98961371984091</v>
+        <v>19.989613719841</v>
       </c>
       <c r="H6">
-        <v>17.27997048325207</v>
+        <v>17.27997048325212</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.13158375638421</v>
+        <v>14.13158375638418</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.77620588323049</v>
+        <v>14.77620588323053</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62643176031743</v>
+        <v>15.62643176031741</v>
       </c>
       <c r="C7">
-        <v>12.35504520478746</v>
+        <v>12.35504520478743</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,25 +614,25 @@
         <v>11.05869586409291</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.15951704298921</v>
+        <v>20.15951704298929</v>
       </c>
       <c r="H7">
-        <v>17.3292042425058</v>
+        <v>17.32920424250588</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.46666635463358</v>
+        <v>14.46666635463356</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.13926218507861</v>
+        <v>15.13926218507859</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.1965792057748</v>
+        <v>17.19657920577486</v>
       </c>
       <c r="C8">
-        <v>13.63686193882375</v>
+        <v>13.63686193882376</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.96688119992249</v>
+        <v>11.96688119992253</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.95429476166032</v>
+        <v>20.95429476166014</v>
       </c>
       <c r="H8">
-        <v>17.59471696373139</v>
+        <v>17.59471696373121</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.87042394088248</v>
+        <v>15.87042394088253</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.6624325281609</v>
+        <v>16.66243252816089</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96918045852507</v>
+        <v>19.96918045852511</v>
       </c>
       <c r="C9">
-        <v>15.91589811635486</v>
+        <v>15.91589811635477</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.67780489317771</v>
+        <v>22.67780489317773</v>
       </c>
       <c r="H9">
-        <v>18.30729439047493</v>
+        <v>18.30729439047496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.36037089346462</v>
+        <v>18.36037089346455</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.37484689679464</v>
+        <v>19.37484689679457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.82803654090808</v>
+        <v>21.8280365409081</v>
       </c>
       <c r="C10">
-        <v>17.45653022338368</v>
+        <v>17.45653022338366</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.06042473767283</v>
+        <v>15.0604247376729</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.04845050892562</v>
+        <v>24.0484505089256</v>
       </c>
       <c r="H10">
-        <v>18.96425285683693</v>
+        <v>18.9642528568369</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.03692149950014</v>
+        <v>20.03692149950012</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.21040344165527</v>
+        <v>21.21040344165531</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.63714451987506</v>
+        <v>22.63714451987501</v>
       </c>
       <c r="C11">
-        <v>18.13066599605392</v>
+        <v>18.13066599605387</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.68321999751918</v>
+        <v>15.6832199975192</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.69597552182059</v>
+        <v>24.69597552182054</v>
       </c>
       <c r="H11">
-        <v>19.29560087290049</v>
+        <v>19.29560087290048</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.76839879311382</v>
+        <v>20.7683987931138</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.01389529441374</v>
+        <v>22.0138952944137</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.93848477215755</v>
+        <v>22.93848477215756</v>
       </c>
       <c r="C12">
-        <v>18.38231987206446</v>
+        <v>18.38231987206444</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.91646549982556</v>
+        <v>15.91646549982559</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.94478813233843</v>
+        <v>24.94478813233853</v>
       </c>
       <c r="H12">
-        <v>19.42604317055966</v>
+        <v>19.42604317055976</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.04109124334056</v>
+        <v>21.04109124334053</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.31387167277406</v>
+        <v>22.31387167277408</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.87380705398403</v>
+        <v>22.87380705398398</v>
       </c>
       <c r="C13">
-        <v>18.32827933673861</v>
+        <v>18.32827933673868</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.86634325911465</v>
+        <v>15.86634325911461</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.89103831608611</v>
+        <v>24.89103831608618</v>
       </c>
       <c r="H13">
-        <v>19.39772426055189</v>
+        <v>19.397724260552</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.98255020545843</v>
+        <v>20.98255020545842</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.24945293280458</v>
+        <v>22.24945293280459</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.66203599736086</v>
+        <v>22.66203599736074</v>
       </c>
       <c r="C14">
-        <v>18.15144108436698</v>
+        <v>18.15144108436684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.702459795895</v>
+        <v>15.70245979589503</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.71637207239338</v>
+        <v>24.7163720723934</v>
       </c>
       <c r="H14">
-        <v>19.30623112559595</v>
+        <v>19.30623112559605</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.79091845020787</v>
+        <v>20.79091845020776</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.03865898116781</v>
+        <v>22.03865898116777</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.53166847540779</v>
+        <v>22.53166847540766</v>
       </c>
       <c r="C15">
         <v>18.04265700530507</v>
@@ -921,22 +921,22 @@
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.60985948049837</v>
+        <v>24.60985948049838</v>
       </c>
       <c r="H15">
-        <v>19.25084494513787</v>
+        <v>19.25084494513793</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.67298405362516</v>
+        <v>20.67298405362506</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.90899082691396</v>
+        <v>21.9089908269139</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.7744413782759</v>
+        <v>21.77444137827594</v>
       </c>
       <c r="C16">
-        <v>17.4119541802758</v>
+        <v>17.41195418027574</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.0193474764738</v>
+        <v>15.01934747647375</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.00662857834676</v>
+        <v>24.00662857834662</v>
       </c>
       <c r="H16">
-        <v>18.94327727916639</v>
+        <v>18.94327727916625</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.98850519577895</v>
+        <v>19.98850519577896</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.15727934210559</v>
+        <v>21.15727934210556</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.30069311756783</v>
+        <v>21.30069311756779</v>
       </c>
       <c r="C17">
-        <v>17.01834290082088</v>
+        <v>17.01834290082083</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.65719047828359</v>
+        <v>14.6571904782836</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.64281121306969</v>
+        <v>23.64281121306971</v>
       </c>
       <c r="H17">
-        <v>18.76312303999509</v>
+        <v>18.76312303999511</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.56073343077346</v>
+        <v>19.56073343077341</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.68822131919089</v>
+        <v>20.68822131919087</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.02475761935003</v>
+        <v>21.0247576193501</v>
       </c>
       <c r="C18">
-        <v>16.7894203310829</v>
+        <v>16.78942033108291</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.44702423488496</v>
+        <v>14.44702423488502</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.43580108345484</v>
+        <v>23.43580108345479</v>
       </c>
       <c r="H18">
-        <v>18.6625433843028</v>
+        <v>18.66254338430272</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.31174199369807</v>
+        <v>19.31174199369813</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.41544929476519</v>
+        <v>20.41544929476525</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93073275137696</v>
+        <v>20.93073275137693</v>
       </c>
       <c r="C19">
-        <v>16.71147082043882</v>
+        <v>16.71147082043876</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.37553909212965</v>
+        <v>14.37553909212966</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
         <v>23.36609317030812</v>
       </c>
       <c r="H19">
-        <v>18.62900223561078</v>
+        <v>18.62900223561079</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.22692615746542</v>
+        <v>19.2269261574654</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.35147993025201</v>
+        <v>21.35147993025211</v>
       </c>
       <c r="C20">
-        <v>17.0605036390696</v>
+        <v>17.06050363906956</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.69593397530157</v>
+        <v>14.69593397530161</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.68130656648377</v>
+        <v>23.68130656648371</v>
       </c>
       <c r="H20">
-        <v>18.78198401318787</v>
+        <v>18.78198401318772</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.60657436120632</v>
+        <v>19.60657436120641</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.73846033364713</v>
+        <v>20.73846033364716</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.72437370816263</v>
+        <v>22.72437370816264</v>
       </c>
       <c r="C21">
         <v>18.20347936753876</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.75066474248793</v>
+        <v>15.75066474248787</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.76757632757694</v>
+        <v>24.7675763275769</v>
       </c>
       <c r="H21">
-        <v>19.33296761549737</v>
+        <v>19.3329676154974</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.10068857797751</v>
+        <v>22.10068857797749</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.59230344430371</v>
+        <v>23.59230344430364</v>
       </c>
       <c r="C22">
-        <v>18.92945878200605</v>
+        <v>18.92945878200598</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.49866520149903</v>
+        <v>25.49866520149905</v>
       </c>
       <c r="H22">
-        <v>19.72217478171735</v>
+        <v>19.72217478171743</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.63324665472958</v>
+        <v>21.63324665472951</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.96612202904558</v>
+        <v>22.96612202904552</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.13168642008037</v>
+        <v>23.13168642008033</v>
       </c>
       <c r="C23">
         <v>18.54383606311496</v>
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.0663840943059</v>
+        <v>16.06638409430598</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.10646814546715</v>
+        <v>25.10646814546709</v>
       </c>
       <c r="H23">
-        <v>19.51168212596026</v>
+        <v>19.51168212596021</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.2160011357537</v>
+        <v>21.21600113575368</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.50641032878484</v>
+        <v>22.50641032878487</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.32853035064792</v>
+        <v>21.32853035064797</v>
       </c>
       <c r="C24">
-        <v>17.04145097759941</v>
+        <v>17.04145097759942</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.67842415392134</v>
+        <v>14.67842415392137</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
         <v>23.66389612114629</v>
       </c>
       <c r="H24">
-        <v>18.77344766549404</v>
+        <v>18.773447665494</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.58585922055855</v>
+        <v>19.5858592205586</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.71575696241572</v>
+        <v>20.71575696241575</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25108215872001</v>
+        <v>19.25108215871989</v>
       </c>
       <c r="C25">
-        <v>15.32357197821809</v>
+        <v>15.32357197821802</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.22620539149062</v>
+        <v>13.2262053914906</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.19355598726898</v>
+        <v>22.193555987269</v>
       </c>
       <c r="H25">
-        <v>18.09226723979161</v>
+        <v>18.09226723979168</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.71420751225593</v>
+        <v>17.7142075122558</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.6694838385806</v>
+        <v>18.66948383858054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.60097823687562</v>
+        <v>17.60119292424995</v>
       </c>
       <c r="C2">
-        <v>13.96797964446712</v>
+        <v>13.9632642281968</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.2087416932148</v>
+        <v>12.20927831938641</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.18068926119747</v>
+        <v>19.58178348363582</v>
       </c>
       <c r="H2">
-        <v>17.6790237327941</v>
+        <v>21.2055706888715</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.65961196050778</v>
       </c>
       <c r="J2">
-        <v>16.23274698368621</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.23140042695547</v>
       </c>
       <c r="L2">
-        <v>17.05622317792996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.05558327302894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40465786206866</v>
+        <v>16.40502182049445</v>
       </c>
       <c r="C3">
-        <v>12.98962796719972</v>
+        <v>12.98538372750052</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.50247152183712</v>
+        <v>11.503039427948</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.53652380505256</v>
+        <v>18.67819503509021</v>
       </c>
       <c r="H3">
-        <v>17.44862921581748</v>
+        <v>20.56128039921119</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.43077346357335</v>
       </c>
       <c r="J3">
-        <v>15.16180289392446</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.16073528942531</v>
       </c>
       <c r="L3">
-        <v>15.89305824570162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.89257027866916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63077911122043</v>
+        <v>15.63123298857041</v>
       </c>
       <c r="C4">
-        <v>12.35858626455374</v>
+        <v>12.3546398444941</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.06113849302351</v>
+        <v>11.06172959283532</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.16152959427815</v>
+        <v>18.1332825927207</v>
       </c>
       <c r="H4">
-        <v>17.32980583681642</v>
+        <v>20.18629575663549</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.31292426718938</v>
       </c>
       <c r="J4">
-        <v>14.47054600152798</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.46965442551275</v>
       </c>
       <c r="L4">
-        <v>15.1434668221613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.14307126503405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.30541295797937</v>
+        <v>15.30590325182101</v>
       </c>
       <c r="C5">
-        <v>12.09368163168266</v>
+        <v>12.08985897495575</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.879496965281</v>
+        <v>10.88009866705267</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>20.01383148390669</v>
+        <v>17.91389066765855</v>
       </c>
       <c r="H5">
-        <v>17.2867942167615</v>
+        <v>20.0386226223691</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.27031354048322</v>
       </c>
       <c r="J5">
-        <v>14.18029805159996</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.1794796764386</v>
       </c>
       <c r="L5">
-        <v>14.82897548163409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.82861754539052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.25077877613172</v>
+        <v>15.2512751093876</v>
       </c>
       <c r="C6">
-        <v>12.04922289023943</v>
+        <v>12.04542093675746</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.84923202998135</v>
+        <v>10.84983556587277</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.989613719841</v>
+        <v>17.87762741456195</v>
       </c>
       <c r="H6">
-        <v>17.27997048325212</v>
+        <v>20.0144102578178</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.26355658763446</v>
       </c>
       <c r="J6">
-        <v>14.13158375638418</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.13077763300812</v>
       </c>
       <c r="L6">
-        <v>14.77620588323053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.77585419696592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62643176031741</v>
+        <v>15.62688612943143</v>
       </c>
       <c r="C7">
-        <v>12.35504520478743</v>
+        <v>12.35110044378838</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.05869586409291</v>
+        <v>11.05928710203816</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.15951704298929</v>
+        <v>18.13031275486362</v>
       </c>
       <c r="H7">
-        <v>17.32920424250588</v>
+        <v>20.1842834577575</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.31232806470989</v>
       </c>
       <c r="J7">
-        <v>14.46666635463356</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.46577575951926</v>
       </c>
       <c r="L7">
-        <v>15.13926218507859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.13886713522959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.19657920577486</v>
+        <v>17.19684584860919</v>
       </c>
       <c r="C8">
-        <v>13.63686193882376</v>
+        <v>13.63230737361875</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.96688119992253</v>
+        <v>11.96742787443322</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.95429476166014</v>
+        <v>19.2682682456524</v>
       </c>
       <c r="H8">
-        <v>17.59471696373121</v>
+        <v>20.97911493980245</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.57583731313068</v>
       </c>
       <c r="J8">
-        <v>15.87042394088253</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.86917274304437</v>
       </c>
       <c r="L8">
-        <v>16.66243252816089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.66184530759942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96918045852511</v>
+        <v>19.96905553433243</v>
       </c>
       <c r="C9">
-        <v>15.91589811635477</v>
+        <v>15.91020328457117</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.68334395047007</v>
+        <v>13.68382794072197</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.67780489317773</v>
+        <v>21.57259307410708</v>
       </c>
       <c r="H9">
-        <v>18.30729439047496</v>
+        <v>22.70343325292687</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.28467119725913</v>
       </c>
       <c r="J9">
-        <v>18.36037089346455</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.35843819006655</v>
       </c>
       <c r="L9">
-        <v>19.37484689679457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.37386701352801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.8280365409081</v>
+        <v>21.82759525584048</v>
       </c>
       <c r="C10">
-        <v>17.45653022338366</v>
+        <v>17.45001355351749</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.0604247376729</v>
+        <v>15.06102893110498</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.0484505089256</v>
+        <v>23.30609690627354</v>
       </c>
       <c r="H10">
-        <v>18.9642528568369</v>
+        <v>24.07511616090247</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.9390380383112</v>
       </c>
       <c r="J10">
-        <v>20.03692149950012</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.03448656111907</v>
       </c>
       <c r="L10">
-        <v>21.21040344165531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.20911182832565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.63714451987501</v>
+        <v>22.63654946119038</v>
       </c>
       <c r="C11">
-        <v>18.13066599605387</v>
+        <v>18.12377437184313</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.6832199975192</v>
+        <v>15.68382405755171</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.69597552182054</v>
+        <v>24.10393575469017</v>
       </c>
       <c r="H11">
-        <v>19.29560087290048</v>
+        <v>24.72321013237219</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.26924942019878</v>
       </c>
       <c r="J11">
-        <v>20.7683987931138</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.76573092083067</v>
       </c>
       <c r="L11">
-        <v>22.0138952944137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.01245325806874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.93848477215756</v>
+        <v>22.9378297118528</v>
       </c>
       <c r="C12">
-        <v>18.38231987206444</v>
+        <v>18.37528566322369</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.91646549982559</v>
+        <v>15.91706849618892</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.94478813233853</v>
+        <v>24.40751446893119</v>
       </c>
       <c r="H12">
-        <v>19.42604317055976</v>
+        <v>24.97225209123869</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.39926784174029</v>
       </c>
       <c r="J12">
-        <v>21.04109124334053</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.03833413234991</v>
       </c>
       <c r="L12">
-        <v>22.31387167277408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.31237107956945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.87380705398398</v>
+        <v>22.87316500106822</v>
       </c>
       <c r="C13">
-        <v>18.32827933673868</v>
+        <v>18.32127587035146</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.86634325911461</v>
+        <v>15.86694653366485</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.89103831608618</v>
+        <v>24.34206586882299</v>
       </c>
       <c r="H13">
-        <v>19.397724260552</v>
+        <v>24.91845226441253</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.37103992481086</v>
       </c>
       <c r="J13">
-        <v>20.98255020545842</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.97981236627684</v>
       </c>
       <c r="L13">
-        <v>22.24945293280459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>22.24796502813366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.66203599736074</v>
+        <v>22.66143604001304</v>
       </c>
       <c r="C14">
-        <v>18.15144108436684</v>
+        <v>18.14453774436667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.70245979589503</v>
+        <v>15.70306379016595</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.7163720723934</v>
+        <v>24.12888122287364</v>
       </c>
       <c r="H14">
-        <v>19.30623112559605</v>
+        <v>24.74362527367732</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.27984466728313</v>
       </c>
       <c r="J14">
-        <v>20.79091845020776</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.78824325929813</v>
       </c>
       <c r="L14">
-        <v>22.03865898116777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.03721216153741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.53166847540766</v>
+        <v>22.53109406079549</v>
       </c>
       <c r="C15">
-        <v>18.04265700530507</v>
+        <v>18.03581490360237</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.60174603733988</v>
+        <v>15.60235033311292</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.60985948049838</v>
+        <v>23.99849387912161</v>
       </c>
       <c r="H15">
-        <v>19.25084494513793</v>
+        <v>24.63701602620898</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.22464180775269</v>
       </c>
       <c r="J15">
-        <v>20.67298405362506</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.67034708978273</v>
       </c>
       <c r="L15">
-        <v>21.9089908269139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.90756895374632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.77444137827594</v>
+        <v>21.77400991527178</v>
       </c>
       <c r="C16">
-        <v>17.41195418027574</v>
+        <v>17.40546195635193</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.01934747647375</v>
+        <v>15.01995155004674</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.00662857834662</v>
+        <v>23.25415132455684</v>
       </c>
       <c r="H16">
-        <v>18.94327727916625</v>
+        <v>24.03325899719674</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.91813763714463</v>
       </c>
       <c r="J16">
-        <v>19.98850519577896</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.98608535816297</v>
       </c>
       <c r="L16">
-        <v>21.15727934210556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.15599735681255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.30069311756779</v>
+        <v>21.30034659013711</v>
       </c>
       <c r="C17">
-        <v>17.01834290082083</v>
+        <v>17.01206474147598</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.6571904782836</v>
+        <v>14.65779286466125</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.64281121306971</v>
+        <v>22.79995602165585</v>
       </c>
       <c r="H17">
-        <v>18.76312303999511</v>
+        <v>23.66914371279887</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.73864703780907</v>
       </c>
       <c r="J17">
-        <v>19.56073343077341</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.55844538757625</v>
       </c>
       <c r="L17">
-        <v>20.68822131919087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.68702270867978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0247576193501</v>
+        <v>21.02445904045706</v>
       </c>
       <c r="C18">
-        <v>16.78942033108291</v>
+        <v>16.78326522257123</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.44702423488502</v>
+        <v>14.44762515108125</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.43580108345479</v>
+        <v>22.53957448782221</v>
       </c>
       <c r="H18">
-        <v>18.66254338430272</v>
+        <v>23.46197137543237</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.6384530552991</v>
       </c>
       <c r="J18">
-        <v>19.31174199369813</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.30952936082297</v>
       </c>
       <c r="L18">
-        <v>20.41544929476525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.4142978527194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93073275137693</v>
+        <v>20.93045026167653</v>
       </c>
       <c r="C19">
-        <v>16.71147082043876</v>
+        <v>16.7053573745893</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.37553909212966</v>
+        <v>14.37613943097321</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.36609317030812</v>
+        <v>22.45155892132995</v>
       </c>
       <c r="H19">
-        <v>18.62900223561079</v>
+        <v>23.3922101135002</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.60504315296971</v>
       </c>
       <c r="J19">
-        <v>19.2269261574654</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.22473900057615</v>
       </c>
       <c r="L19">
-        <v>20.32257424603601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.32143864924722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.35147993025211</v>
+        <v>21.35112445725403</v>
       </c>
       <c r="C20">
-        <v>17.06050363906956</v>
+        <v>17.05420270276936</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.69593397530161</v>
+        <v>14.69653659451732</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.68130656648371</v>
+        <v>22.84821627891134</v>
       </c>
       <c r="H20">
-        <v>18.78198401318772</v>
+        <v>23.70766983374628</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.75743695112133</v>
       </c>
       <c r="J20">
-        <v>19.60657436120641</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.60427233174416</v>
       </c>
       <c r="L20">
-        <v>20.73846033364716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.7372529315398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.72437370816264</v>
+        <v>22.72376143747025</v>
       </c>
       <c r="C21">
-        <v>18.20347936753876</v>
+        <v>18.19654663804727</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.75066474248787</v>
+        <v>15.75126855486273</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.7675763275769</v>
+        <v>24.19145787494124</v>
       </c>
       <c r="H21">
-        <v>19.3329676154974</v>
+        <v>24.79487636786698</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.30649348309586</v>
       </c>
       <c r="J21">
-        <v>20.84732051964161</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.84462695878213</v>
       </c>
       <c r="L21">
-        <v>22.10068857797749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.09922973710303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.59230344430364</v>
+        <v>23.59151281392962</v>
       </c>
       <c r="C22">
-        <v>18.92945878200598</v>
+        <v>18.92210940062784</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.42500564705197</v>
+        <v>16.42560419653185</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.49866520149905</v>
+        <v>25.07793668072713</v>
       </c>
       <c r="H22">
-        <v>19.72217478171743</v>
+        <v>25.52665840175313</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.69447940124429</v>
       </c>
       <c r="J22">
-        <v>21.63324665472951</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.63029097042353</v>
       </c>
       <c r="L22">
-        <v>22.96612202904552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.96448934951695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.13168642008033</v>
+        <v>23.13099207832691</v>
       </c>
       <c r="C23">
-        <v>18.54383606311496</v>
+        <v>18.53670956235348</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.06638409430598</v>
+        <v>16.06698609169438</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.10646814546709</v>
+        <v>24.60395844598476</v>
       </c>
       <c r="H23">
-        <v>19.51168212596021</v>
+        <v>25.13408402611399</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.48463495289806</v>
       </c>
       <c r="J23">
-        <v>21.21600113575368</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.21318606533003</v>
       </c>
       <c r="L23">
-        <v>22.50641032878487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>22.5048714346773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.32853035064797</v>
+        <v>21.32817892466253</v>
       </c>
       <c r="C24">
-        <v>17.04145097759942</v>
+        <v>17.03516033878362</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.67842415392137</v>
+        <v>14.67902666941263</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.66389612114629</v>
+        <v>22.82639551556825</v>
       </c>
       <c r="H24">
-        <v>18.773447665494</v>
+        <v>23.69024545015479</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.74893271674795</v>
       </c>
       <c r="J24">
-        <v>19.5858592205586</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.5835635153796</v>
       </c>
       <c r="L24">
-        <v>20.71575696241575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.7145535373453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25108215871989</v>
+        <v>19.25106708268716</v>
       </c>
       <c r="C25">
-        <v>15.32357197821802</v>
+        <v>15.31818142712202</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.2262053914906</v>
+        <v>13.2267047032323</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.193555987269</v>
+        <v>20.94202146144987</v>
       </c>
       <c r="H25">
-        <v>18.09226723979168</v>
+        <v>22.21888841702744</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.07063196685933</v>
       </c>
       <c r="J25">
-        <v>17.7142075122558</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.71245814661517</v>
       </c>
       <c r="L25">
-        <v>18.66948383858054</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.66861318427331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.60119292424995</v>
+        <v>17.76365585573771</v>
       </c>
       <c r="C2">
-        <v>13.9632642281968</v>
+        <v>11.3919909005663</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.20927831938641</v>
+        <v>8.840398464125276</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>40.20080176907548</v>
       </c>
       <c r="G2">
-        <v>19.58178348363582</v>
+        <v>2.094220670499926</v>
       </c>
       <c r="H2">
-        <v>21.2055706888715</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.65961196050778</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.863582101462515</v>
       </c>
       <c r="K2">
-        <v>16.23140042695547</v>
+        <v>15.41470791832998</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.05558327302894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.71029414032578</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.71388098417609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40502182049445</v>
+        <v>16.50164433156879</v>
       </c>
       <c r="C3">
-        <v>12.98538372750052</v>
+        <v>10.6171009979989</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.503039427948</v>
+        <v>8.615632942157207</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>38.56947702694416</v>
       </c>
       <c r="G3">
-        <v>18.67819503509021</v>
+        <v>2.104179975074983</v>
       </c>
       <c r="H3">
-        <v>20.56128039921119</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.43077346357335</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.905902046758603</v>
       </c>
       <c r="K3">
-        <v>15.16073528942531</v>
+        <v>14.35489024930112</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.89257027866916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.03273658267254</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.78513220800905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63123298857041</v>
+        <v>15.68644706950433</v>
       </c>
       <c r="C4">
-        <v>12.3546398444941</v>
+        <v>10.11726383260998</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.06172959283532</v>
+        <v>8.479281148866018</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>37.56993197352485</v>
       </c>
       <c r="G4">
-        <v>18.1332825927207</v>
+        <v>2.110430028763407</v>
       </c>
       <c r="H4">
-        <v>20.18629575663549</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.31292426718938</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.933847443268038</v>
       </c>
       <c r="K4">
-        <v>14.46965442551275</v>
+        <v>13.67058783336073</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.14307126503405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.60843121222885</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.22593603159729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.30590325182101</v>
+        <v>15.3439668767361</v>
       </c>
       <c r="C5">
-        <v>12.08985897495575</v>
+        <v>9.907444100078116</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.88009866705267</v>
+        <v>8.424207625835381</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>37.16353908258628</v>
       </c>
       <c r="G5">
-        <v>17.91389066765855</v>
+        <v>2.113013238475079</v>
       </c>
       <c r="H5">
-        <v>20.0386226223691</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.27031354048322</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.94571221986294</v>
       </c>
       <c r="K5">
-        <v>14.1794796764386</v>
+        <v>13.38317142222074</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.82861754539052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.43365086554795</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.00094774707194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.2512751093876</v>
+        <v>15.28647336872809</v>
       </c>
       <c r="C6">
-        <v>12.04542093675746</v>
+        <v>9.872231046062216</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.84983556587277</v>
+        <v>8.415094599627791</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.09612689576075</v>
       </c>
       <c r="G6">
-        <v>17.87762741456195</v>
+        <v>2.113444433064381</v>
       </c>
       <c r="H6">
-        <v>20.0144102578178</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.26355658763446</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.947710709248911</v>
       </c>
       <c r="K6">
-        <v>14.13077763300812</v>
+        <v>13.33492606223827</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.77585419696592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.40452256662062</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.96376648663462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62688612943143</v>
+        <v>15.68187007055401</v>
       </c>
       <c r="C7">
-        <v>12.35110044378838</v>
+        <v>10.11445906357246</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.05928710203816</v>
+        <v>8.478536319391589</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>37.56444687723366</v>
       </c>
       <c r="G7">
-        <v>18.13031275486362</v>
+        <v>2.110464717071832</v>
       </c>
       <c r="H7">
-        <v>20.1842834577575</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.31232806470989</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.934005545565293</v>
       </c>
       <c r="K7">
-        <v>14.46577575951926</v>
+        <v>13.666746431934</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.13886713522959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.60608133732189</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.22288991224331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.19684584860919</v>
+        <v>17.33679334848278</v>
       </c>
       <c r="C8">
-        <v>13.63230737361875</v>
+        <v>11.12974736045573</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.96742787443322</v>
+        <v>8.76259961012877</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>39.63810896457806</v>
       </c>
       <c r="G8">
-        <v>19.2682682456524</v>
+        <v>2.097628069762826</v>
       </c>
       <c r="H8">
-        <v>20.97911493980245</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.57583731313068</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.87775677046708</v>
       </c>
       <c r="K8">
-        <v>15.86917274304437</v>
+        <v>15.05617742330719</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.66184530759942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.4785048073368</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.39141238547463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96905553433243</v>
+        <v>20.26913547724364</v>
       </c>
       <c r="C9">
-        <v>15.91020328457117</v>
+        <v>12.93416398748293</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.68382794072197</v>
+        <v>9.329699771764018</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>43.70698898896366</v>
       </c>
       <c r="G9">
-        <v>21.57259307410708</v>
+        <v>2.073411846801098</v>
       </c>
       <c r="H9">
-        <v>22.70343325292687</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.28467119725913</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.783833798385626</v>
       </c>
       <c r="K9">
-        <v>18.35843819006655</v>
+        <v>17.52022996363572</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.37386701352801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.45945230291519</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>29.76709724668948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.82759525584048</v>
+        <v>22.24324565854203</v>
       </c>
       <c r="C10">
-        <v>17.45001355351749</v>
+        <v>14.15284179330165</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.06102893110498</v>
+        <v>9.748744718150069</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>46.6847001818998</v>
       </c>
       <c r="G10">
-        <v>23.30609690627354</v>
+        <v>2.056025575414005</v>
       </c>
       <c r="H10">
-        <v>24.07511616090247</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.9390380383112</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.726118781534139</v>
       </c>
       <c r="K10">
-        <v>20.03448656111907</v>
+        <v>19.1804989813772</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.20911182832565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.90943439626356</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>31.56165200109389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.63654946119038</v>
+        <v>23.10476502641056</v>
       </c>
       <c r="C11">
-        <v>18.12377437184313</v>
+        <v>14.68572070911186</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.68382405755171</v>
+        <v>9.939243868463246</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>48.03580333723735</v>
       </c>
       <c r="G11">
-        <v>24.10393575469017</v>
+        <v>2.048158950524291</v>
       </c>
       <c r="H11">
-        <v>24.72321013237219</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.26924942019878</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.702658199737289</v>
       </c>
       <c r="K11">
-        <v>20.76573092083067</v>
+        <v>19.90541153643008</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.01245325806874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.54082560083751</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>32.38913593497079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.9378297118528</v>
+        <v>23.42598931990938</v>
       </c>
       <c r="C12">
-        <v>18.37528566322369</v>
+        <v>14.88457747999913</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.91706849618892</v>
+        <v>10.01131835792342</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>48.54697289217275</v>
       </c>
       <c r="G12">
-        <v>24.40751446893119</v>
+        <v>2.045181876589597</v>
       </c>
       <c r="H12">
-        <v>24.97225209123869</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.39926784174029</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.694209981518652</v>
       </c>
       <c r="K12">
-        <v>21.03833413234991</v>
+        <v>20.17575743047025</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.31237107956945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.77601444666669</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>32.70418807539366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.87316500106822</v>
+        <v>23.35702690071527</v>
       </c>
       <c r="C13">
-        <v>18.32127587035146</v>
+        <v>14.841877812701</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.86694653366485</v>
+        <v>9.995799274250034</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>48.4369023437029</v>
       </c>
       <c r="G13">
-        <v>24.34206586882299</v>
+        <v>2.045823034257669</v>
       </c>
       <c r="H13">
-        <v>24.91845226441253</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.37103992481086</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.696009481288774</v>
       </c>
       <c r="K13">
-        <v>20.97981236627684</v>
+        <v>20.11771528527347</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.24796502813366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.72553342598561</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>32.63625796289949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.66143604001304</v>
+        <v>23.13129139414318</v>
       </c>
       <c r="C14">
-        <v>18.14453774436667</v>
+        <v>14.70213857351491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.70306379016595</v>
+        <v>9.945174978938939</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>48.07786628999436</v>
       </c>
       <c r="G14">
-        <v>24.12888122287364</v>
+        <v>2.047914014184624</v>
       </c>
       <c r="H14">
-        <v>24.74362527367732</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.27984466728313</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.701954213882309</v>
       </c>
       <c r="K14">
-        <v>20.78824325929813</v>
+        <v>19.92773524625548</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.03721216153741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.56025207210016</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>32.41502054569948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.53109406079549</v>
+        <v>22.99237630050465</v>
       </c>
       <c r="C15">
-        <v>18.03581490360237</v>
+        <v>14.61616736078573</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.60235033311292</v>
+        <v>9.914156684887153</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>47.85788874137282</v>
       </c>
       <c r="G15">
-        <v>23.99849387912161</v>
+        <v>2.049194904599787</v>
       </c>
       <c r="H15">
-        <v>24.63701602620898</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.22464180775269</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.705653378211914</v>
       </c>
       <c r="K15">
-        <v>20.67034708978273</v>
+        <v>19.81083125043764</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.90756895374632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.45850865274003</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>32.2797319794423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.77400991527178</v>
+        <v>22.18622822293143</v>
       </c>
       <c r="C16">
-        <v>17.40546195635193</v>
+        <v>14.11759737991628</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.01995155004674</v>
+        <v>9.736288544961116</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>46.59633323885032</v>
       </c>
       <c r="G16">
-        <v>23.25415132455684</v>
+        <v>2.056540180139654</v>
       </c>
       <c r="H16">
-        <v>24.03325899719674</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.91813763714463</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.727711011452097</v>
       </c>
       <c r="K16">
-        <v>19.98608535816297</v>
+        <v>19.13253022742539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.15599735681255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.86761639926401</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>31.50780519738359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.30034659013711</v>
+        <v>21.6824908938349</v>
       </c>
       <c r="C17">
-        <v>17.01206474147598</v>
+        <v>13.80634070679999</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.65779286466125</v>
+        <v>9.627104945611203</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>45.82151354887544</v>
       </c>
       <c r="G17">
-        <v>22.79995602165585</v>
+        <v>2.061054277096632</v>
       </c>
       <c r="H17">
-        <v>23.66914371279887</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.73864703780907</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.741981056623321</v>
       </c>
       <c r="K17">
-        <v>19.55844538757625</v>
+        <v>18.7087773494282</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.68702270867978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.49800033446836</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>31.03715668264802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.02445904045706</v>
+        <v>21.38930218766427</v>
       </c>
       <c r="C18">
-        <v>16.78326522257123</v>
+        <v>13.62527947364909</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.44762515108125</v>
+        <v>9.564295709520772</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>45.37552261558984</v>
       </c>
       <c r="G18">
-        <v>22.53957448782221</v>
+        <v>2.063654948466866</v>
       </c>
       <c r="H18">
-        <v>23.46197137543237</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.6384530552991</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.750449522535521</v>
       </c>
       <c r="K18">
-        <v>19.30952936082297</v>
+        <v>18.46217569623891</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.4142978527194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.28274148605237</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>30.7674902404109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.93045026167653</v>
+        <v>21.28943379544699</v>
       </c>
       <c r="C19">
-        <v>16.7053573745893</v>
+        <v>13.56362125262156</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.37613943097321</v>
+        <v>9.543029429284857</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>45.22446076727052</v>
       </c>
       <c r="G19">
-        <v>22.45155892132995</v>
+        <v>2.064536348054492</v>
       </c>
       <c r="H19">
-        <v>23.3922101135002</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.60504315296971</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.753360617628796</v>
       </c>
       <c r="K19">
-        <v>19.22473900057615</v>
+        <v>18.37818186009629</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.32143864924722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.20939636645386</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>30.67636205219468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.35112445725403</v>
+        <v>21.73647026276526</v>
       </c>
       <c r="C20">
-        <v>17.05420270276936</v>
+        <v>13.83968399340513</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.69653659451732</v>
+        <v>9.638729086665778</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>45.90402918124663</v>
       </c>
       <c r="G20">
-        <v>22.84821627891134</v>
+        <v>2.060573329790956</v>
       </c>
       <c r="H20">
-        <v>23.70766983374628</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.75743695112133</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.74043477193448</v>
       </c>
       <c r="K20">
-        <v>19.60427233174416</v>
+        <v>18.75418223053521</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.7372529315398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.53762141066801</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>31.08715004534109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.72376143747025</v>
+        <v>23.19772946389336</v>
       </c>
       <c r="C21">
-        <v>18.19654663804727</v>
+        <v>14.74326160758697</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.75126855486273</v>
+        <v>9.960046599713571</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>48.1833356760072</v>
       </c>
       <c r="G21">
-        <v>24.19145787494124</v>
+        <v>2.047299829222367</v>
       </c>
       <c r="H21">
-        <v>24.79487636786698</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.30649348309586</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.700195979616495</v>
       </c>
       <c r="K21">
-        <v>20.84462695878213</v>
+        <v>19.98364824292444</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.09922973710303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.60890391419544</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>32.47995602140825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.59151281392962</v>
+        <v>24.12364798638035</v>
       </c>
       <c r="C22">
-        <v>18.92210940062784</v>
+        <v>15.31679506245936</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.42560419653185</v>
+        <v>10.16966190870148</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>49.67038190325449</v>
       </c>
       <c r="G22">
-        <v>25.07793668072713</v>
+        <v>2.038633208898107</v>
       </c>
       <c r="H22">
-        <v>25.52665840175313</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.69447940124429</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.676457145726232</v>
       </c>
       <c r="K22">
-        <v>21.63029097042353</v>
+        <v>20.76302241776781</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.96448934951695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.28636802139061</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>33.40025027568147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.13099207832691</v>
+        <v>23.63204545606817</v>
       </c>
       <c r="C23">
-        <v>18.53670956235348</v>
+        <v>15.01218772898444</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.06698609169438</v>
+        <v>10.05783409323351</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>48.87691744213929</v>
       </c>
       <c r="G23">
-        <v>24.60395844598476</v>
+        <v>2.043259533149872</v>
       </c>
       <c r="H23">
-        <v>25.13408402611399</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.48463495289806</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.688880282695654</v>
       </c>
       <c r="K23">
-        <v>21.21318606533003</v>
+        <v>20.349192922063</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.5048714346773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.92681365763364</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>32.9081048931306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.32817892466253</v>
+        <v>21.71207736909349</v>
       </c>
       <c r="C24">
-        <v>17.03516033878362</v>
+        <v>13.82461609501243</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.67902666941263</v>
+        <v>9.633473927716699</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>45.86672553711158</v>
       </c>
       <c r="G24">
-        <v>22.82639551556825</v>
+        <v>2.060790748755856</v>
       </c>
       <c r="H24">
-        <v>23.69024545015479</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.74893271674795</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.74113302612236</v>
       </c>
       <c r="K24">
-        <v>19.5835635153796</v>
+        <v>18.73366398226705</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.7145535373453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.51971733529851</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.06454520077809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25106708268716</v>
+        <v>19.50833282417113</v>
       </c>
       <c r="C25">
-        <v>15.31818142712202</v>
+        <v>12.46534639704515</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.2267047032323</v>
+        <v>9.175616180849746</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>42.607657896177</v>
       </c>
       <c r="G25">
-        <v>20.94202146144987</v>
+        <v>2.07987780825087</v>
       </c>
       <c r="H25">
-        <v>22.21888841702744</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.07063196685933</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.80736443128625</v>
       </c>
       <c r="K25">
-        <v>17.71245814661517</v>
+        <v>16.88067994456339</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.66861318427331</v>
+        <v>14.89953671807288</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.11576086500603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.76365585573771</v>
+        <v>21.211194525563</v>
       </c>
       <c r="C2">
-        <v>11.3919909005663</v>
+        <v>12.7364412648725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.840398464125276</v>
+        <v>9.072171272166059</v>
       </c>
       <c r="F2">
-        <v>40.20080176907548</v>
+        <v>24.48422379290933</v>
       </c>
       <c r="G2">
-        <v>2.094220670499926</v>
+        <v>2.088342637068227</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.93617798874598</v>
       </c>
       <c r="J2">
-        <v>5.863582101462515</v>
+        <v>5.555042219267103</v>
       </c>
       <c r="K2">
-        <v>15.41470791832998</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.132069294474299</v>
       </c>
       <c r="M2">
-        <v>13.71029414032578</v>
+        <v>13.55598213145853</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.71388098417609</v>
+        <v>14.64646087046914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.50164433156879</v>
+        <v>19.79783336229781</v>
       </c>
       <c r="C3">
-        <v>10.6171009979989</v>
+        <v>12.22294321698186</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.615632942157207</v>
+        <v>9.139948049173947</v>
       </c>
       <c r="F3">
-        <v>38.56947702694416</v>
+        <v>24.22330234072836</v>
       </c>
       <c r="G3">
-        <v>2.104179975074983</v>
+        <v>2.093688129477618</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.26429592851317</v>
       </c>
       <c r="J3">
-        <v>5.905902046758603</v>
+        <v>5.517446738071436</v>
       </c>
       <c r="K3">
-        <v>14.35489024930112</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.956269708551751</v>
       </c>
       <c r="M3">
-        <v>13.03273658267254</v>
+        <v>12.88869674992489</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.78513220800905</v>
+        <v>14.71059630515474</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.68644706950433</v>
+        <v>18.87824440767977</v>
       </c>
       <c r="C4">
-        <v>10.11726383260998</v>
+        <v>11.89663487412286</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.479281148866018</v>
+        <v>9.184793950265039</v>
       </c>
       <c r="F4">
-        <v>37.56993197352485</v>
+        <v>24.08645615652826</v>
       </c>
       <c r="G4">
-        <v>2.110430028763407</v>
+        <v>2.097069910720524</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.47822146594232</v>
       </c>
       <c r="J4">
-        <v>5.933847443268038</v>
+        <v>5.494597297629706</v>
       </c>
       <c r="K4">
-        <v>13.67058783336073</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.849032564961423</v>
       </c>
       <c r="M4">
-        <v>12.60843121222885</v>
+        <v>12.46388907639424</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.22593603159729</v>
+        <v>14.76779259683244</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.3439668767361</v>
+        <v>18.49041464744829</v>
       </c>
       <c r="C5">
-        <v>9.907444100078116</v>
+        <v>11.76101188253702</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.424207625835381</v>
+        <v>9.203870691881232</v>
       </c>
       <c r="F5">
-        <v>37.16353908258628</v>
+        <v>24.03644574919287</v>
       </c>
       <c r="G5">
-        <v>2.113013238475079</v>
+        <v>2.098473690694215</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.56840484331509</v>
       </c>
       <c r="J5">
-        <v>5.94571221986294</v>
+        <v>5.48534779628123</v>
       </c>
       <c r="K5">
-        <v>13.38317142222074</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.80555746436124</v>
       </c>
       <c r="M5">
-        <v>12.43365086554795</v>
+        <v>12.28716669802289</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.00094774707194</v>
+        <v>14.79535949150577</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.28647336872809</v>
+        <v>18.42522324398411</v>
       </c>
       <c r="C6">
-        <v>9.872231046062216</v>
+        <v>11.73833564202277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.415094599627791</v>
+        <v>9.207086487694587</v>
       </c>
       <c r="F6">
-        <v>37.09612689576075</v>
+        <v>24.0284853565628</v>
       </c>
       <c r="G6">
-        <v>2.113444433064381</v>
+        <v>2.098708355833951</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.5835579411956</v>
       </c>
       <c r="J6">
-        <v>5.947710709248911</v>
+        <v>5.483815742196529</v>
       </c>
       <c r="K6">
-        <v>13.33492606223827</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.798353454847649</v>
       </c>
       <c r="M6">
-        <v>12.40452256662062</v>
+        <v>12.2576101191313</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.96376648663462</v>
+        <v>14.80018777141202</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.68187007055401</v>
+        <v>18.8730670902096</v>
       </c>
       <c r="C7">
-        <v>10.11445906357246</v>
+        <v>11.8948163705111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.478536319391589</v>
+        <v>9.185047993620312</v>
       </c>
       <c r="F7">
-        <v>37.56444687723366</v>
+        <v>24.08575856483252</v>
       </c>
       <c r="G7">
-        <v>2.110464717071832</v>
+        <v>2.097088737817913</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.47942569082117</v>
       </c>
       <c r="J7">
-        <v>5.934005545565293</v>
+        <v>5.494472301458727</v>
       </c>
       <c r="K7">
-        <v>13.666746431934</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.848445270092375</v>
       </c>
       <c r="M7">
-        <v>12.60608133732189</v>
+        <v>12.46152008372347</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.22288991224331</v>
+        <v>14.76814741952232</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33679334848278</v>
+        <v>20.73457170829231</v>
       </c>
       <c r="C8">
-        <v>11.12974736045573</v>
+        <v>12.56174110144324</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.76259961012877</v>
+        <v>9.09486354832754</v>
       </c>
       <c r="F8">
-        <v>39.63810896457806</v>
+        <v>24.38934377022328</v>
       </c>
       <c r="G8">
-        <v>2.097628069762826</v>
+        <v>2.090165470631748</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.04664619689343</v>
       </c>
       <c r="J8">
-        <v>5.87775677046708</v>
+        <v>5.542032406608559</v>
       </c>
       <c r="K8">
-        <v>15.05617742330719</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.071335656596782</v>
       </c>
       <c r="M8">
-        <v>13.4785048073368</v>
+        <v>13.32913555006629</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.39141238547463</v>
+        <v>14.66474304811997</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.26913547724364</v>
+        <v>23.97740557573598</v>
       </c>
       <c r="C9">
-        <v>12.93416398748293</v>
+        <v>13.77773177118297</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.329699771764018</v>
+        <v>8.944157843850411</v>
       </c>
       <c r="F9">
-        <v>43.70698898896366</v>
+        <v>25.17441560442332</v>
       </c>
       <c r="G9">
-        <v>2.073411846801098</v>
+        <v>2.077349587754139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.30339099695482</v>
       </c>
       <c r="J9">
-        <v>5.783833798385626</v>
+        <v>5.637031504844581</v>
       </c>
       <c r="K9">
-        <v>17.52022996363572</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.511992825057204</v>
       </c>
       <c r="M9">
-        <v>15.45945230291519</v>
+        <v>14.90422698936478</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.76709724668948</v>
+        <v>14.61330193411664</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.24324565854203</v>
+        <v>26.11617400644394</v>
       </c>
       <c r="C10">
-        <v>14.15284179330165</v>
+        <v>14.61037195941788</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.748744718150069</v>
+        <v>8.850129222911944</v>
       </c>
       <c r="F10">
-        <v>46.6847001818998</v>
+        <v>25.87164829712261</v>
       </c>
       <c r="G10">
-        <v>2.056025575414005</v>
+        <v>2.068353262156476</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.83222247855302</v>
       </c>
       <c r="J10">
-        <v>5.726118781534139</v>
+        <v>5.707721023232259</v>
       </c>
       <c r="K10">
-        <v>19.1804989813772</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.835371995141529</v>
       </c>
       <c r="M10">
-        <v>16.90943439626356</v>
+        <v>15.97761924524765</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.56165200109389</v>
+        <v>14.68134957113328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.10476502641056</v>
+        <v>27.03729842511102</v>
       </c>
       <c r="C11">
-        <v>14.68572070911186</v>
+        <v>14.97526324222848</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.939243868463246</v>
+        <v>8.811159192840593</v>
       </c>
       <c r="F11">
-        <v>48.03580333723735</v>
+        <v>26.21568480897772</v>
       </c>
       <c r="G11">
-        <v>2.048158950524291</v>
+        <v>2.064341239602897</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.63699120394327</v>
       </c>
       <c r="J11">
-        <v>5.702658199737289</v>
+        <v>5.740039559375323</v>
       </c>
       <c r="K11">
-        <v>19.90541153643008</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.981920291325027</v>
       </c>
       <c r="M11">
-        <v>17.54082560083751</v>
+        <v>16.44676300754357</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.38913593497079</v>
+        <v>14.73814086563065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.42598931990938</v>
+        <v>27.37874334616538</v>
       </c>
       <c r="C12">
-        <v>14.88457747999913</v>
+        <v>15.11139976942901</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.01131835792342</v>
+        <v>8.79696570078848</v>
       </c>
       <c r="F12">
-        <v>48.54697289217275</v>
+        <v>26.34986260556177</v>
       </c>
       <c r="G12">
-        <v>2.045181876589597</v>
+        <v>2.062832638455061</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.56609080130453</v>
       </c>
       <c r="J12">
-        <v>5.694209981518652</v>
+        <v>5.75229806800052</v>
       </c>
       <c r="K12">
-        <v>20.17575743047025</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.037297807326725</v>
       </c>
       <c r="M12">
-        <v>17.77601444666669</v>
+        <v>16.62160677396589</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.70418807539366</v>
+        <v>14.76358796843103</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.35702690071527</v>
+        <v>27.30553323227621</v>
       </c>
       <c r="C13">
-        <v>14.841877812701</v>
+        <v>15.08217163049886</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.995799274250034</v>
+        <v>8.799997179893712</v>
       </c>
       <c r="F13">
-        <v>48.4369023437029</v>
+        <v>26.32079115088064</v>
       </c>
       <c r="G13">
-        <v>2.045823034257669</v>
+        <v>2.063157083459518</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.58122084109872</v>
       </c>
       <c r="J13">
-        <v>5.696009481288774</v>
+        <v>5.749657128929501</v>
       </c>
       <c r="K13">
-        <v>20.11771528527347</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.025377025488417</v>
       </c>
       <c r="M13">
-        <v>17.72553342598561</v>
+        <v>16.58407678737014</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.63625796289949</v>
+        <v>14.75792866333474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.13129139414318</v>
+        <v>27.06553640638692</v>
       </c>
       <c r="C14">
-        <v>14.70213857351491</v>
+        <v>14.98650436797679</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.945174978938939</v>
+        <v>8.809980090921455</v>
       </c>
       <c r="F14">
-        <v>48.07786628999436</v>
+        <v>26.22664539047719</v>
       </c>
       <c r="G14">
-        <v>2.047914014184624</v>
+        <v>2.064216917744315</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.63109572063583</v>
       </c>
       <c r="J14">
-        <v>5.701954213882309</v>
+        <v>5.741047686969285</v>
       </c>
       <c r="K14">
-        <v>19.92773524625548</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.986478778468063</v>
       </c>
       <c r="M14">
-        <v>17.56025207210016</v>
+        <v>16.46120411101092</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.41502054569948</v>
+        <v>14.74015415310552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99237630050465</v>
+        <v>26.91757488687231</v>
       </c>
       <c r="C15">
-        <v>14.61616736078573</v>
+        <v>14.92763865398949</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.914156684887153</v>
+        <v>8.816168823268455</v>
       </c>
       <c r="F15">
-        <v>47.85788874137282</v>
+        <v>26.16948701369298</v>
       </c>
       <c r="G15">
-        <v>2.049194904599787</v>
+        <v>2.06486745780716</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.66204906074483</v>
       </c>
       <c r="J15">
-        <v>5.705653378211914</v>
+        <v>5.735776694245872</v>
       </c>
       <c r="K15">
-        <v>19.81083125043764</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.962636193167002</v>
       </c>
       <c r="M15">
-        <v>17.45850865274003</v>
+        <v>16.38557358498531</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.2797319794423</v>
+        <v>14.72978663057446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.18622822293143</v>
+        <v>26.05494101512264</v>
       </c>
       <c r="C16">
-        <v>14.11759737991628</v>
+        <v>14.58624211971555</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.736288544961116</v>
+        <v>8.852753945967615</v>
       </c>
       <c r="F16">
-        <v>46.59633323885032</v>
+        <v>25.84970853177841</v>
       </c>
       <c r="G16">
-        <v>2.056540180139654</v>
+        <v>2.068617000276146</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.84538902326499</v>
       </c>
       <c r="J16">
-        <v>5.727711011452097</v>
+        <v>5.705611918936129</v>
       </c>
       <c r="K16">
-        <v>19.13253022742539</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.825780249260577</v>
       </c>
       <c r="M16">
-        <v>16.86761639926401</v>
+        <v>15.9465690010031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.50780519738359</v>
+        <v>14.6781775299918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.6824908938349</v>
+        <v>25.51253269741045</v>
       </c>
       <c r="C17">
-        <v>13.80634070679999</v>
+        <v>14.37321619433678</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.627104945611203</v>
+        <v>8.876183494612484</v>
       </c>
       <c r="F17">
-        <v>45.82151354887544</v>
+        <v>25.66044361217148</v>
       </c>
       <c r="G17">
-        <v>2.061054277096632</v>
+        <v>2.070937204654903</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.96294466823115</v>
       </c>
       <c r="J17">
-        <v>5.741981056623321</v>
+        <v>5.687145984494427</v>
       </c>
       <c r="K17">
-        <v>18.7087773494282</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.74165316332679</v>
       </c>
       <c r="M17">
-        <v>16.49800033446836</v>
+        <v>15.6723033962827</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.03715668264802</v>
+        <v>14.65329758945547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.38930218766427</v>
+        <v>25.19567167567623</v>
       </c>
       <c r="C18">
-        <v>13.62527947364909</v>
+        <v>14.24938460997584</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.564295709520772</v>
+        <v>8.890016547456913</v>
       </c>
       <c r="F18">
-        <v>45.37552261558984</v>
+        <v>25.55411040568045</v>
       </c>
       <c r="G18">
-        <v>2.063654948466866</v>
+        <v>2.072279354959734</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.03233882858287</v>
       </c>
       <c r="J18">
-        <v>5.750449522535521</v>
+        <v>5.676540248556043</v>
       </c>
       <c r="K18">
-        <v>18.46217569623891</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.693214901624788</v>
       </c>
       <c r="M18">
-        <v>16.28274148605237</v>
+        <v>15.51275306257167</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.7674902404109</v>
+        <v>14.6414059962422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28943379544699</v>
+        <v>25.08754691450621</v>
       </c>
       <c r="C19">
-        <v>13.56362125262156</v>
+        <v>14.20723480883357</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.543029429284857</v>
+        <v>8.894761008765292</v>
       </c>
       <c r="F19">
-        <v>45.22446076727052</v>
+        <v>25.51854055600364</v>
       </c>
       <c r="G19">
-        <v>2.064536348054492</v>
+        <v>2.072735121015061</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.05613209591386</v>
       </c>
       <c r="J19">
-        <v>5.753360617628796</v>
+        <v>5.672952064379409</v>
       </c>
       <c r="K19">
-        <v>18.37818186009629</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.676807031665286</v>
       </c>
       <c r="M19">
-        <v>16.20939636645386</v>
+        <v>15.45842493681755</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.67636205219468</v>
+        <v>14.63778810273894</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73647026276526</v>
+        <v>25.57077765761623</v>
       </c>
       <c r="C20">
-        <v>13.83968399340513</v>
+        <v>14.39602855480497</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.638729086665778</v>
+        <v>8.873652314850272</v>
       </c>
       <c r="F20">
-        <v>45.90402918124663</v>
+        <v>25.68032936250191</v>
       </c>
       <c r="G20">
-        <v>2.060573329790956</v>
+        <v>2.070689431602271</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.9502445972047</v>
       </c>
       <c r="J20">
-        <v>5.74043477193448</v>
+        <v>5.689110145161921</v>
       </c>
       <c r="K20">
-        <v>18.75418223053521</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.750614149191181</v>
       </c>
       <c r="M20">
-        <v>16.53762141066801</v>
+        <v>15.70168620193892</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.08715004534109</v>
+        <v>14.6556941129417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.19772946389336</v>
+        <v>27.13622847524115</v>
       </c>
       <c r="C21">
-        <v>14.74326160758697</v>
+        <v>15.0146598150653</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.960046599713571</v>
+        <v>8.807032433717715</v>
       </c>
       <c r="F21">
-        <v>48.1833356760072</v>
+        <v>26.25419223524808</v>
       </c>
       <c r="G21">
-        <v>2.047299829222367</v>
+        <v>2.063905336804484</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.61636160607983</v>
       </c>
       <c r="J21">
-        <v>5.700195979616495</v>
+        <v>5.743575964948875</v>
       </c>
       <c r="K21">
-        <v>19.98364824292444</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.997907590992121</v>
       </c>
       <c r="M21">
-        <v>17.60890391419544</v>
+        <v>16.49737145284072</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.47995602140825</v>
+        <v>14.74526622305441</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.12364798638035</v>
+        <v>28.11645479560258</v>
       </c>
       <c r="C22">
-        <v>15.31679506245936</v>
+        <v>15.40706885573909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.16966190870148</v>
+        <v>8.766786193938145</v>
       </c>
       <c r="F22">
-        <v>49.67038190325449</v>
+        <v>26.6519796796982</v>
       </c>
       <c r="G22">
-        <v>2.038633208898107</v>
+        <v>2.059533234974058</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.41596614861682</v>
       </c>
       <c r="J22">
-        <v>5.676457145726232</v>
+        <v>5.779288803092142</v>
       </c>
       <c r="K22">
-        <v>20.76302241776781</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.158830925860634</v>
       </c>
       <c r="M22">
-        <v>18.28636802139061</v>
+        <v>17.00099911892375</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.40025027568147</v>
+        <v>14.82687971426424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.63204545606817</v>
+        <v>27.59718454350533</v>
       </c>
       <c r="C23">
-        <v>15.01218772898444</v>
+        <v>15.19873331637941</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.05783409323351</v>
+        <v>8.787959209402951</v>
       </c>
       <c r="F23">
-        <v>48.87691744213929</v>
+        <v>26.43758322019335</v>
       </c>
       <c r="G23">
-        <v>2.043259533149872</v>
+        <v>2.061861378200303</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.52118761971406</v>
       </c>
       <c r="J23">
-        <v>5.688880282695654</v>
+        <v>5.760218534067118</v>
       </c>
       <c r="K23">
-        <v>20.349192922063</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.073018111670446</v>
       </c>
       <c r="M23">
-        <v>17.92681365763364</v>
+        <v>16.73371874026702</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>32.9081048931306</v>
+        <v>14.78113724811064</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71207736909349</v>
+        <v>25.54446076386514</v>
       </c>
       <c r="C24">
-        <v>13.82461609501243</v>
+        <v>14.38571931972027</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.633473927716699</v>
+        <v>8.874795531507724</v>
       </c>
       <c r="F24">
-        <v>45.86672553711158</v>
+        <v>25.6713313000508</v>
       </c>
       <c r="G24">
-        <v>2.060790748755856</v>
+        <v>2.070801424085185</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.95598068288618</v>
       </c>
       <c r="J24">
-        <v>5.74113302612236</v>
+        <v>5.688222114950945</v>
       </c>
       <c r="K24">
-        <v>18.73366398226705</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.746563110400341</v>
       </c>
       <c r="M24">
-        <v>16.51971733529851</v>
+        <v>15.6884080599113</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.06454520077809</v>
+        <v>14.65460314841041</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.50833282417113</v>
+        <v>23.14328843563926</v>
       </c>
       <c r="C25">
-        <v>12.46534639704515</v>
+        <v>13.45915634169569</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.175616180849746</v>
+        <v>8.982053838729724</v>
       </c>
       <c r="F25">
-        <v>42.607657896177</v>
+        <v>24.9411623722446</v>
       </c>
       <c r="G25">
-        <v>2.07987780825087</v>
+        <v>2.080739598163053</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.49217135464334</v>
       </c>
       <c r="J25">
-        <v>5.80736443128625</v>
+        <v>5.611162997621144</v>
       </c>
       <c r="K25">
-        <v>16.88067994456339</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.392673716332949</v>
       </c>
       <c r="M25">
-        <v>14.89953671807288</v>
+        <v>14.49244526189544</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.11576086500603</v>
+        <v>14.60960881281047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.211194525563</v>
+        <v>15.86352615203185</v>
       </c>
       <c r="C2">
-        <v>12.7364412648725</v>
+        <v>11.0704057494741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.072171272166059</v>
+        <v>15.80939750668612</v>
       </c>
       <c r="F2">
-        <v>24.48422379290933</v>
+        <v>37.05606187625315</v>
       </c>
       <c r="G2">
-        <v>2.088342637068227</v>
+        <v>3.648498030116251</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.93617798874598</v>
+        <v>24.07044985236733</v>
       </c>
       <c r="J2">
-        <v>5.555042219267103</v>
+        <v>7.8939449450746</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.132069294474299</v>
+        <v>12.73870787281835</v>
       </c>
       <c r="M2">
-        <v>13.55598213145853</v>
+        <v>16.6924763437016</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.64646087046914</v>
+        <v>23.6314909350026</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.79783336229781</v>
+        <v>15.31927779028043</v>
       </c>
       <c r="C3">
-        <v>12.22294321698186</v>
+        <v>10.87355907233613</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.139948049173947</v>
+        <v>15.84964383976237</v>
       </c>
       <c r="F3">
-        <v>24.22330234072836</v>
+        <v>37.16121959947497</v>
       </c>
       <c r="G3">
-        <v>2.093688129477618</v>
+        <v>3.650514273403191</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.26429592851317</v>
+        <v>24.21619582048301</v>
       </c>
       <c r="J3">
-        <v>5.517446738071436</v>
+        <v>7.886602316594892</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.956269708551751</v>
+        <v>12.72932254275976</v>
       </c>
       <c r="M3">
-        <v>12.88869674992489</v>
+        <v>16.55784133550932</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.71059630515474</v>
+        <v>23.74433372204495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.87824440767977</v>
+        <v>14.97588008924854</v>
       </c>
       <c r="C4">
-        <v>11.89663487412286</v>
+        <v>10.75015200977517</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.184793950265039</v>
+        <v>15.87599280447426</v>
       </c>
       <c r="F4">
-        <v>24.08645615652826</v>
+        <v>37.2351785390731</v>
       </c>
       <c r="G4">
-        <v>2.097069910720524</v>
+        <v>3.651817802661525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.47822146594232</v>
+        <v>24.31100965874567</v>
       </c>
       <c r="J4">
-        <v>5.494597297629706</v>
+        <v>7.882265564305893</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.849032564961423</v>
+        <v>12.72494844834581</v>
       </c>
       <c r="M4">
-        <v>12.46388907639424</v>
+        <v>16.47622150682558</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.76779259683244</v>
+        <v>23.81969192153575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49041464744829</v>
+        <v>14.83381850979123</v>
       </c>
       <c r="C5">
-        <v>11.76101188253702</v>
+        <v>10.69926627003389</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.203870691881232</v>
+        <v>15.88714276165102</v>
       </c>
       <c r="F5">
-        <v>24.03644574919287</v>
+        <v>37.26767269636635</v>
       </c>
       <c r="G5">
-        <v>2.098473690694215</v>
+        <v>3.652365535868287</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.56840484331509</v>
+        <v>24.35098663475663</v>
       </c>
       <c r="J5">
-        <v>5.48534779628123</v>
+        <v>7.880542012092248</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.80555746436124</v>
+        <v>12.72351700587047</v>
       </c>
       <c r="M5">
-        <v>12.28716669802289</v>
+        <v>16.44324961063314</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.79535949150577</v>
+        <v>23.85192371695996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42522324398411</v>
+        <v>14.81010708643467</v>
       </c>
       <c r="C6">
-        <v>11.73833564202277</v>
+        <v>10.69078199923114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.207086487694587</v>
+        <v>15.88901914247477</v>
       </c>
       <c r="F6">
-        <v>24.0284853565628</v>
+        <v>37.2732103859766</v>
       </c>
       <c r="G6">
-        <v>2.098708355833951</v>
+        <v>3.652457486717867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.5835579411956</v>
+        <v>24.35770570373376</v>
       </c>
       <c r="J6">
-        <v>5.483815742196529</v>
+        <v>7.880258473336397</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.798353454847649</v>
+        <v>12.72330057011306</v>
       </c>
       <c r="M6">
-        <v>12.2576101191313</v>
+        <v>16.43779283826296</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.80018777141202</v>
+        <v>23.85736762720773</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8730670902096</v>
+        <v>14.97397252543015</v>
       </c>
       <c r="C7">
-        <v>11.8948163705111</v>
+        <v>10.74946810361651</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.185047993620312</v>
+        <v>15.87614150531367</v>
       </c>
       <c r="F7">
-        <v>24.08575856483252</v>
+        <v>37.23560723889177</v>
       </c>
       <c r="G7">
-        <v>2.097088737817913</v>
+        <v>3.651825122566013</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.47942569082117</v>
+        <v>24.31154337767583</v>
       </c>
       <c r="J7">
-        <v>5.494472301458727</v>
+        <v>7.88224214218823</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.848445270092375</v>
+        <v>12.7249277196876</v>
       </c>
       <c r="M7">
-        <v>12.46152008372347</v>
+        <v>16.47577563324333</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.76814741952232</v>
+        <v>23.82012045096779</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73457170829231</v>
+        <v>15.6778962321117</v>
       </c>
       <c r="C8">
-        <v>12.56174110144324</v>
+        <v>11.00308594919989</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.09486354832754</v>
+        <v>15.82293502802693</v>
       </c>
       <c r="F8">
-        <v>24.38934377022328</v>
+        <v>37.09036735558091</v>
       </c>
       <c r="G8">
-        <v>2.090165470631748</v>
+        <v>3.649179657695894</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.04664619689343</v>
+        <v>24.11959810057782</v>
       </c>
       <c r="J8">
-        <v>5.542032406608559</v>
+        <v>7.891377908594515</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.071335656596782</v>
+        <v>12.7351847802825</v>
       </c>
       <c r="M8">
-        <v>13.32913555006629</v>
+        <v>16.64585250614599</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.66474304811997</v>
+        <v>23.66913630810757</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.97740557573598</v>
+        <v>16.97739902000403</v>
       </c>
       <c r="C9">
-        <v>13.77773177118297</v>
+        <v>11.47845790008043</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.944157843850411</v>
+        <v>15.73155606884523</v>
       </c>
       <c r="F9">
-        <v>25.17441560442332</v>
+        <v>36.88033465257362</v>
       </c>
       <c r="G9">
-        <v>2.077349587754139</v>
+        <v>3.644509628061271</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.30339099695482</v>
+        <v>23.78542468817365</v>
       </c>
       <c r="J9">
-        <v>5.637031504844581</v>
+        <v>7.910631663868174</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.511992825057204</v>
+        <v>12.76623019004021</v>
       </c>
       <c r="M9">
-        <v>14.90422698936478</v>
+        <v>16.98653162141055</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.61330193411664</v>
+        <v>23.42142454510838</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.11617400644394</v>
+        <v>17.87380370998409</v>
       </c>
       <c r="C10">
-        <v>14.61037195941788</v>
+        <v>11.81204229853064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.850129222911944</v>
+        <v>15.67227228029373</v>
       </c>
       <c r="F10">
-        <v>25.87164829712261</v>
+        <v>36.77194407796073</v>
       </c>
       <c r="G10">
-        <v>2.068353262156476</v>
+        <v>3.641390847282964</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.83222247855302</v>
+        <v>23.56562127105209</v>
       </c>
       <c r="J10">
-        <v>5.707721023232259</v>
+        <v>7.92556279341809</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.835371995141529</v>
+        <v>12.79558259885839</v>
       </c>
       <c r="M10">
-        <v>15.97761924524765</v>
+        <v>17.23964022463923</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.68134957113328</v>
+        <v>23.26917105063877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.03729842511102</v>
+        <v>18.26736076480914</v>
       </c>
       <c r="C11">
-        <v>14.97526324222848</v>
+        <v>11.95995279750836</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.811159192840593</v>
+        <v>15.64699755374953</v>
       </c>
       <c r="F11">
-        <v>26.21568480897772</v>
+        <v>36.73266514311375</v>
       </c>
       <c r="G11">
-        <v>2.064341239602897</v>
+        <v>3.640039136295371</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.63699120394327</v>
+        <v>23.47120562921459</v>
       </c>
       <c r="J11">
-        <v>5.740039559375323</v>
+        <v>7.932519268343939</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.981920291325027</v>
+        <v>12.8103283597408</v>
       </c>
       <c r="M11">
-        <v>16.44676300754357</v>
+        <v>17.35506293530111</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.73814086563065</v>
+        <v>23.20641889975172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.37874334616538</v>
+        <v>18.41423478759492</v>
       </c>
       <c r="C12">
-        <v>15.11139976942901</v>
+        <v>12.01537633783902</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.79696570078848</v>
+        <v>15.63766947747003</v>
       </c>
       <c r="F12">
-        <v>26.34986260556177</v>
+        <v>36.71923718881533</v>
       </c>
       <c r="G12">
-        <v>2.062832638455061</v>
+        <v>3.639536864921527</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.56609080130453</v>
+        <v>23.43625442506615</v>
       </c>
       <c r="J12">
-        <v>5.75229806800052</v>
+        <v>7.935176518384576</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.037297807326725</v>
+        <v>12.81610989309999</v>
       </c>
       <c r="M12">
-        <v>16.62160677396589</v>
+        <v>17.39878301354151</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.76358796843103</v>
+        <v>23.18359672574833</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.30553323227621</v>
+        <v>18.38270043669711</v>
       </c>
       <c r="C13">
-        <v>15.08217163049886</v>
+        <v>12.00346652560479</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.799997179893712</v>
+        <v>15.63966765216295</v>
       </c>
       <c r="F13">
-        <v>26.32079115088064</v>
+        <v>36.72206476478219</v>
       </c>
       <c r="G13">
-        <v>2.063157083459518</v>
+        <v>3.639644612187629</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.58122084109872</v>
+        <v>23.44374611762705</v>
       </c>
       <c r="J13">
-        <v>5.749657128929501</v>
+        <v>7.934603219983151</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.025377025488417</v>
+        <v>12.81485599110241</v>
       </c>
       <c r="M13">
-        <v>16.58407678737014</v>
+        <v>17.38936703204311</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.75792866333474</v>
+        <v>23.18846997596249</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06553640638692</v>
+        <v>18.27948801297553</v>
       </c>
       <c r="C14">
-        <v>14.98650436797679</v>
+        <v>11.9645244816044</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.809980090921455</v>
+        <v>15.64622526262156</v>
       </c>
       <c r="F14">
-        <v>26.22664539047719</v>
+        <v>36.73153141388204</v>
       </c>
       <c r="G14">
-        <v>2.064216917744315</v>
+        <v>3.639997622156267</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.63109572063583</v>
+        <v>23.46831409761301</v>
       </c>
       <c r="J14">
-        <v>5.741047686969285</v>
+        <v>7.932737424923346</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.986478778468063</v>
+        <v>12.81080006505684</v>
       </c>
       <c r="M14">
-        <v>16.46120411101092</v>
+        <v>17.35865973507336</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.74015415310552</v>
+        <v>23.2045224255783</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.91757488687231</v>
+        <v>18.21598335551474</v>
       </c>
       <c r="C15">
-        <v>14.92763865398949</v>
+        <v>11.94059391538048</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.816168823268455</v>
+        <v>15.65027360387203</v>
       </c>
       <c r="F15">
-        <v>26.16948701369298</v>
+        <v>36.73751844691993</v>
       </c>
       <c r="G15">
-        <v>2.06486745780716</v>
+        <v>3.640215098737668</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.66204906074483</v>
+        <v>23.48346714630897</v>
       </c>
       <c r="J15">
-        <v>5.735776694245872</v>
+        <v>7.931597545855635</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.962636193167002</v>
+        <v>12.80834134845397</v>
       </c>
       <c r="M15">
-        <v>16.38557358498531</v>
+        <v>17.3398513463321</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.72978663057446</v>
+        <v>23.21447766224241</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05494101512264</v>
+        <v>17.84778772061698</v>
       </c>
       <c r="C16">
-        <v>14.58624211971555</v>
+        <v>11.80229571822732</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.852753945967615</v>
+        <v>15.67395807051997</v>
       </c>
       <c r="F16">
-        <v>25.84970853177841</v>
+        <v>36.77471320778861</v>
       </c>
       <c r="G16">
-        <v>2.068617000276146</v>
+        <v>3.641480529661523</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.84538902326499</v>
+        <v>23.57190375188906</v>
       </c>
       <c r="J16">
-        <v>5.705611918936129</v>
+        <v>7.92511142231266</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.825780249260577</v>
+        <v>12.79464673503874</v>
       </c>
       <c r="M16">
-        <v>15.9465690010031</v>
+        <v>17.23210031229782</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.6781775299918</v>
+        <v>23.27340343113256</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51253269741045</v>
+        <v>17.61818457755011</v>
       </c>
       <c r="C17">
-        <v>14.37321619433678</v>
+        <v>11.71644552113417</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.876183494612484</v>
+        <v>15.68892107495967</v>
       </c>
       <c r="F17">
-        <v>25.66044361217148</v>
+        <v>36.80010260489171</v>
       </c>
       <c r="G17">
-        <v>2.070937204654903</v>
+        <v>3.642273966504978</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.96294466823115</v>
+        <v>23.62758464875501</v>
       </c>
       <c r="J17">
-        <v>5.687145984494427</v>
+        <v>7.921174011838573</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.74165316332679</v>
+        <v>12.7866004808425</v>
       </c>
       <c r="M17">
-        <v>15.6723033962827</v>
+        <v>17.16605046440856</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.65329758945547</v>
+        <v>23.31122292117611</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19567167567623</v>
+        <v>17.48479007035962</v>
       </c>
       <c r="C18">
-        <v>14.24938460997584</v>
+        <v>11.66670739554633</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.890016547456913</v>
+        <v>15.69768686292266</v>
       </c>
       <c r="F18">
-        <v>25.55411040568045</v>
+        <v>36.81564964128016</v>
       </c>
       <c r="G18">
-        <v>2.072279354959734</v>
+        <v>3.642736643158459</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.03233882858287</v>
+        <v>23.66013545142217</v>
       </c>
       <c r="J18">
-        <v>5.676540248556043</v>
+        <v>7.918924813859786</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.693214901624788</v>
+        <v>12.78210379330886</v>
       </c>
       <c r="M18">
-        <v>15.51275306257167</v>
+        <v>17.12808861854248</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.6414059962422</v>
+        <v>23.33358804182985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08754691450621</v>
+        <v>17.43939971948488</v>
       </c>
       <c r="C19">
-        <v>14.20723480883357</v>
+        <v>11.64980629983354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.894761008765292</v>
+        <v>15.70068221596982</v>
       </c>
       <c r="F19">
-        <v>25.51854055600364</v>
+        <v>36.82107555289213</v>
       </c>
       <c r="G19">
-        <v>2.072735121015061</v>
+        <v>3.642894383208431</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.05613209591386</v>
+        <v>23.67124668770049</v>
       </c>
       <c r="J19">
-        <v>5.672952064379409</v>
+        <v>7.918165954704591</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.676807031665286</v>
+        <v>12.78060392431553</v>
       </c>
       <c r="M19">
-        <v>15.45842493681755</v>
+        <v>17.11524112065206</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.63778810273894</v>
+        <v>23.34126551353195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.57077765761623</v>
+        <v>17.64276502779464</v>
       </c>
       <c r="C20">
-        <v>14.39602855480497</v>
+        <v>11.72562187383949</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.873652314850272</v>
+        <v>15.68731173842813</v>
       </c>
       <c r="F20">
-        <v>25.68032936250191</v>
+        <v>36.79730215669222</v>
       </c>
       <c r="G20">
-        <v>2.070689431602271</v>
+        <v>3.642188850797324</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.9502445972047</v>
+        <v>23.62160302299279</v>
       </c>
       <c r="J20">
-        <v>5.689110145161921</v>
+        <v>7.921591556632815</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.750614149191181</v>
+        <v>12.78744344796025</v>
       </c>
       <c r="M20">
-        <v>15.70168620193892</v>
+        <v>17.17307886428042</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.6556941129417</v>
+        <v>23.30713356132117</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.13622847524115</v>
+        <v>18.30986338451255</v>
       </c>
       <c r="C21">
-        <v>15.0146598150653</v>
+        <v>11.97597890166911</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.807032433717715</v>
+        <v>15.6442925459767</v>
       </c>
       <c r="F21">
-        <v>26.25419223524808</v>
+        <v>36.72871155314687</v>
       </c>
       <c r="G21">
-        <v>2.063905336804484</v>
+        <v>3.639893674619236</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.61636160607983</v>
+        <v>23.46107611786225</v>
       </c>
       <c r="J21">
-        <v>5.743575964948875</v>
+        <v>7.933284835462419</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.997907590992121</v>
+        <v>12.81198604734113</v>
       </c>
       <c r="M21">
-        <v>16.49737145284072</v>
+        <v>17.36767911382992</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.74526622305441</v>
+        <v>23.1997818639016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.11645479560258</v>
+        <v>18.73323260200879</v>
       </c>
       <c r="C22">
-        <v>15.40706885573909</v>
+        <v>12.13616575979494</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.766786193938145</v>
+        <v>15.61759261085568</v>
       </c>
       <c r="F22">
-        <v>26.6519796796982</v>
+        <v>36.69231416659028</v>
       </c>
       <c r="G22">
-        <v>2.059533234974058</v>
+        <v>3.638449533336811</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.41596614861682</v>
+        <v>23.36083715080648</v>
       </c>
       <c r="J22">
-        <v>5.779288803092142</v>
+        <v>7.941060737797912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.158830925860634</v>
+        <v>12.82917666974289</v>
       </c>
       <c r="M22">
-        <v>17.00099911892375</v>
+        <v>17.49491846870701</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82687971426424</v>
+        <v>23.13510663744752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59718454350533</v>
+        <v>18.50846064738608</v>
       </c>
       <c r="C23">
-        <v>15.19873331637941</v>
+        <v>12.05099640226658</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.787959209402951</v>
+        <v>15.63171355384985</v>
       </c>
       <c r="F23">
-        <v>26.43758322019335</v>
+        <v>36.71096757627559</v>
       </c>
       <c r="G23">
-        <v>2.061861378200303</v>
+        <v>3.639215200547753</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.52118761971406</v>
+        <v>23.41390868088627</v>
       </c>
       <c r="J23">
-        <v>5.760218534067118</v>
+        <v>7.936898572788737</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.073018111670446</v>
+        <v>12.81989735703742</v>
       </c>
       <c r="M23">
-        <v>16.73371874026702</v>
+        <v>17.42701262634227</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.78113724811064</v>
+        <v>23.16912155718726</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.54446076386514</v>
+        <v>17.63165653520999</v>
       </c>
       <c r="C24">
-        <v>14.38571931972027</v>
+        <v>11.72147443106513</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.874795531507724</v>
+        <v>15.68803881058837</v>
       </c>
       <c r="F24">
-        <v>25.6713313000508</v>
+        <v>36.79856527940245</v>
       </c>
       <c r="G24">
-        <v>2.070801424085185</v>
+        <v>3.642227311298089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.95598068288618</v>
+        <v>23.62430563668915</v>
       </c>
       <c r="J24">
-        <v>5.688222114950945</v>
+        <v>7.921402739497255</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.746563110400341</v>
+        <v>12.78706193984763</v>
       </c>
       <c r="M24">
-        <v>15.6884080599113</v>
+        <v>17.16990128796143</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.65460314841041</v>
+        <v>23.30898042315115</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14328843563926</v>
+        <v>16.63550760343065</v>
       </c>
       <c r="C25">
-        <v>13.45915634169569</v>
+        <v>11.35245202360345</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.982053838729724</v>
+        <v>15.7548941279641</v>
       </c>
       <c r="F25">
-        <v>24.9411623722446</v>
+        <v>36.92911171315973</v>
       </c>
       <c r="G25">
-        <v>2.080739598163053</v>
+        <v>3.645717914546788</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.49217135464334</v>
+        <v>23.87130994244157</v>
       </c>
       <c r="J25">
-        <v>5.611162997621144</v>
+        <v>7.905282837467609</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.392673716332949</v>
+        <v>12.75667324657818</v>
       </c>
       <c r="M25">
-        <v>14.49244526189544</v>
+        <v>16.89376191512868</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.60960881281047</v>
+        <v>23.48323271729157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.86352615203185</v>
+        <v>21.21119452556297</v>
       </c>
       <c r="C2">
-        <v>11.0704057494741</v>
+        <v>12.73644126487248</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.80939750668612</v>
+        <v>9.072171272166187</v>
       </c>
       <c r="F2">
-        <v>37.05606187625315</v>
+        <v>24.48422379290933</v>
       </c>
       <c r="G2">
-        <v>3.648498030116251</v>
+        <v>2.088342637068226</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.07044985236733</v>
+        <v>13.93617798874606</v>
       </c>
       <c r="J2">
-        <v>7.8939449450746</v>
+        <v>5.555042219267323</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.73870787281835</v>
+        <v>8.132069294474361</v>
       </c>
       <c r="M2">
-        <v>16.6924763437016</v>
+        <v>13.55598213145854</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.6314909350026</v>
+        <v>14.64646087046922</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.31927779028043</v>
+        <v>19.79783336229774</v>
       </c>
       <c r="C3">
-        <v>10.87355907233613</v>
+        <v>12.22294321698191</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.84964383976237</v>
+        <v>9.139948049173951</v>
       </c>
       <c r="F3">
-        <v>37.16121959947497</v>
+        <v>24.22330234072851</v>
       </c>
       <c r="G3">
-        <v>3.650514273403191</v>
+        <v>2.093688129477887</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.21619582048301</v>
+        <v>14.26429592851338</v>
       </c>
       <c r="J3">
-        <v>7.886602316594892</v>
+        <v>5.517446738071495</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.72932254275976</v>
+        <v>7.95626970855172</v>
       </c>
       <c r="M3">
-        <v>16.55784133550932</v>
+        <v>12.88869674992491</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.74433372204495</v>
+        <v>14.71059630515493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.97588008924854</v>
+        <v>18.87824440767981</v>
       </c>
       <c r="C4">
-        <v>10.75015200977517</v>
+        <v>11.89663487412286</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.87599280447426</v>
+        <v>9.184793950264776</v>
       </c>
       <c r="F4">
-        <v>37.2351785390731</v>
+        <v>24.0864561565282</v>
       </c>
       <c r="G4">
-        <v>3.651817802661525</v>
+        <v>2.097069910720525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.31100965874567</v>
+        <v>14.47822146594225</v>
       </c>
       <c r="J4">
-        <v>7.882265564305893</v>
+        <v>5.494597297629603</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.72494844834581</v>
+        <v>7.84903256496132</v>
       </c>
       <c r="M4">
-        <v>16.47622150682558</v>
+        <v>12.46388907639418</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.81969192153575</v>
+        <v>14.76779259683238</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.83381850979123</v>
+        <v>18.4904146474483</v>
       </c>
       <c r="C5">
-        <v>10.69926627003389</v>
+        <v>11.76101188253698</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.88714276165102</v>
+        <v>9.203870691881233</v>
       </c>
       <c r="F5">
-        <v>37.26767269636635</v>
+        <v>24.03644574919285</v>
       </c>
       <c r="G5">
-        <v>3.652365535868287</v>
+        <v>2.098473690694349</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.35098663475663</v>
+        <v>14.56840484331501</v>
       </c>
       <c r="J5">
-        <v>7.880542012092248</v>
+        <v>5.485347796281199</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.72351700587047</v>
+        <v>7.805557464361253</v>
       </c>
       <c r="M5">
-        <v>16.44324961063314</v>
+        <v>12.28716669802286</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.85192371695996</v>
+        <v>14.7953594915057</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.81010708643467</v>
+        <v>18.42522324398409</v>
       </c>
       <c r="C6">
-        <v>10.69078199923114</v>
+        <v>11.73833564202262</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.88901914247477</v>
+        <v>9.207086487694523</v>
       </c>
       <c r="F6">
-        <v>37.2732103859766</v>
+        <v>24.028485356563</v>
       </c>
       <c r="G6">
-        <v>3.652457486717867</v>
+        <v>2.098708355833548</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.35770570373376</v>
+        <v>14.58355794119583</v>
       </c>
       <c r="J6">
-        <v>7.880258473336397</v>
+        <v>5.48381574219662</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.72330057011306</v>
+        <v>7.798353454847644</v>
       </c>
       <c r="M6">
-        <v>16.43779283826296</v>
+        <v>12.25761011913128</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.85736762720773</v>
+        <v>14.80018777141224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.97397252543015</v>
+        <v>18.87306709020956</v>
       </c>
       <c r="C7">
-        <v>10.74946810361651</v>
+        <v>11.89481637051088</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.87614150531367</v>
+        <v>9.185047993620064</v>
       </c>
       <c r="F7">
-        <v>37.23560723889177</v>
+        <v>24.08575856483245</v>
       </c>
       <c r="G7">
-        <v>3.651825122566013</v>
+        <v>2.097088737817914</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.31154337767583</v>
+        <v>14.47942569082114</v>
       </c>
       <c r="J7">
-        <v>7.88224214218823</v>
+        <v>5.494472301458591</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.7249277196876</v>
+        <v>7.848445270092242</v>
       </c>
       <c r="M7">
-        <v>16.47577563324333</v>
+        <v>12.46152008372343</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.82012045096779</v>
+        <v>14.76814741952233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.6778962321117</v>
+        <v>20.73457170829226</v>
       </c>
       <c r="C8">
-        <v>11.00308594919989</v>
+        <v>12.56174110144341</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.82293502802693</v>
+        <v>9.094863548327726</v>
       </c>
       <c r="F8">
-        <v>37.09036735558091</v>
+        <v>24.38934377022339</v>
       </c>
       <c r="G8">
-        <v>3.649179657695894</v>
+        <v>2.090165470631884</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.11959810057782</v>
+        <v>14.04664619689349</v>
       </c>
       <c r="J8">
-        <v>7.891377908594515</v>
+        <v>5.542032406608467</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.7351847802825</v>
+        <v>8.071335656596791</v>
       </c>
       <c r="M8">
-        <v>16.64585250614599</v>
+        <v>13.32913555006634</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.66913630810757</v>
+        <v>14.66474304811994</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.97739902000403</v>
+        <v>23.97740557573597</v>
       </c>
       <c r="C9">
-        <v>11.47845790008043</v>
+        <v>13.77773177118316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.73155606884523</v>
+        <v>8.944157843850462</v>
       </c>
       <c r="F9">
-        <v>36.88033465257362</v>
+        <v>25.17441560442333</v>
       </c>
       <c r="G9">
-        <v>3.644509628061271</v>
+        <v>2.077349587754139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.78542468817365</v>
+        <v>13.30339099695489</v>
       </c>
       <c r="J9">
-        <v>7.910631663868174</v>
+        <v>5.637031504844648</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.76623019004021</v>
+        <v>8.511992825057218</v>
       </c>
       <c r="M9">
-        <v>16.98653162141055</v>
+        <v>14.9042269893648</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.42142454510838</v>
+        <v>14.61330193411663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87380370998409</v>
+        <v>26.11617400644388</v>
       </c>
       <c r="C10">
-        <v>11.81204229853064</v>
+        <v>14.61037195941767</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.67227228029373</v>
+        <v>8.850129222911827</v>
       </c>
       <c r="F10">
-        <v>36.77194407796073</v>
+        <v>25.87164829712273</v>
       </c>
       <c r="G10">
-        <v>3.641390847282964</v>
+        <v>2.068353262156341</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.56562127105209</v>
+        <v>12.83222247855318</v>
       </c>
       <c r="J10">
-        <v>7.92556279341809</v>
+        <v>5.70772102323225</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.79558259885839</v>
+        <v>8.8353719951415</v>
       </c>
       <c r="M10">
-        <v>17.23964022463923</v>
+        <v>15.97761924524765</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.26917105063877</v>
+        <v>14.68134957113345</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.26736076480914</v>
+        <v>27.03729842511101</v>
       </c>
       <c r="C11">
-        <v>11.95995279750836</v>
+        <v>14.97526324222845</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.64699755374953</v>
+        <v>8.81115919284059</v>
       </c>
       <c r="F11">
-        <v>36.73266514311375</v>
+        <v>26.2156848089778</v>
       </c>
       <c r="G11">
-        <v>3.640039136295371</v>
+        <v>2.064341239602764</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.47120562921459</v>
+        <v>12.63699120394335</v>
       </c>
       <c r="J11">
-        <v>7.932519268343939</v>
+        <v>5.740039559375264</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.8103283597408</v>
+        <v>8.98192029132502</v>
       </c>
       <c r="M11">
-        <v>17.35506293530111</v>
+        <v>16.44676300754358</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.20641889975172</v>
+        <v>14.73814086563068</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.41423478759492</v>
+        <v>27.37874334616538</v>
       </c>
       <c r="C12">
-        <v>12.01537633783902</v>
+        <v>15.11139976942891</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.63766947747003</v>
+        <v>8.796965700788482</v>
       </c>
       <c r="F12">
-        <v>36.71923718881533</v>
+        <v>26.34986260556192</v>
       </c>
       <c r="G12">
-        <v>3.639536864921527</v>
+        <v>2.062832638455061</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.43625442506615</v>
+        <v>12.5660908013047</v>
       </c>
       <c r="J12">
-        <v>7.935176518384576</v>
+        <v>5.75229806800048</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.81610989309999</v>
+        <v>9.037297807326725</v>
       </c>
       <c r="M12">
-        <v>17.39878301354151</v>
+        <v>16.62160677396587</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.18359672574833</v>
+        <v>14.76358796843117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.38270043669711</v>
+        <v>27.30553323227623</v>
       </c>
       <c r="C13">
-        <v>12.00346652560479</v>
+        <v>15.08217163049873</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.63966765216295</v>
+        <v>8.799997179893591</v>
       </c>
       <c r="F13">
-        <v>36.72206476478219</v>
+        <v>26.32079115088068</v>
       </c>
       <c r="G13">
-        <v>3.639644612187629</v>
+        <v>2.06315708345992</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.44374611762705</v>
+        <v>12.58122084109881</v>
       </c>
       <c r="J13">
-        <v>7.934603219983151</v>
+        <v>5.749657128929559</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.81485599110241</v>
+        <v>9.025377025488392</v>
       </c>
       <c r="M13">
-        <v>17.38936703204311</v>
+        <v>16.58407678737015</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.18846997596249</v>
+        <v>14.75792866333483</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.27948801297553</v>
+        <v>27.06553640638702</v>
       </c>
       <c r="C14">
-        <v>11.9645244816044</v>
+        <v>14.98650436797669</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.64622526262156</v>
+        <v>8.80998009092157</v>
       </c>
       <c r="F14">
-        <v>36.73153141388204</v>
+        <v>26.22664539047707</v>
       </c>
       <c r="G14">
-        <v>3.639997622156267</v>
+        <v>2.064216917744179</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.46831409761301</v>
+        <v>12.6310957206355</v>
       </c>
       <c r="J14">
-        <v>7.932737424923346</v>
+        <v>5.741047686969259</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.81080006505684</v>
+        <v>8.986478778468156</v>
       </c>
       <c r="M14">
-        <v>17.35865973507336</v>
+        <v>16.46120411101093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.2045224255783</v>
+        <v>14.74015415310534</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.21598335551474</v>
+        <v>26.9175748868723</v>
       </c>
       <c r="C15">
-        <v>11.94059391538048</v>
+        <v>14.92763865398958</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.65027360387203</v>
+        <v>8.81616882326845</v>
       </c>
       <c r="F15">
-        <v>36.73751844691993</v>
+        <v>26.16948701369303</v>
       </c>
       <c r="G15">
-        <v>3.640215098737668</v>
+        <v>2.064867457807027</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.48346714630897</v>
+        <v>12.66204906074491</v>
       </c>
       <c r="J15">
-        <v>7.931597545855635</v>
+        <v>5.735776694245875</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.80834134845397</v>
+        <v>8.962636193166992</v>
       </c>
       <c r="M15">
-        <v>17.3398513463321</v>
+        <v>16.38557358498532</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.21447766224241</v>
+        <v>14.72978663057455</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.84778772061698</v>
+        <v>26.05494101512268</v>
       </c>
       <c r="C16">
-        <v>11.80229571822732</v>
+        <v>14.58624211971535</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.67395807051997</v>
+        <v>8.852753945967553</v>
       </c>
       <c r="F16">
-        <v>36.77471320778861</v>
+        <v>25.84970853177851</v>
       </c>
       <c r="G16">
-        <v>3.641480529661523</v>
+        <v>2.068617000275746</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.57190375188906</v>
+        <v>12.845389023265</v>
       </c>
       <c r="J16">
-        <v>7.92511142231266</v>
+        <v>5.705611918936152</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.79464673503874</v>
+        <v>8.825780249260648</v>
       </c>
       <c r="M16">
-        <v>17.23210031229782</v>
+        <v>15.9465690010031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.27340343113256</v>
+        <v>14.67817752999189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.61818457755011</v>
+        <v>25.51253269741045</v>
       </c>
       <c r="C17">
-        <v>11.71644552113417</v>
+        <v>14.37321619433659</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.68892107495967</v>
+        <v>8.876183494612299</v>
       </c>
       <c r="F17">
-        <v>36.80010260489171</v>
+        <v>25.66044361217143</v>
       </c>
       <c r="G17">
-        <v>3.642273966504978</v>
+        <v>2.070937204654904</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.62758464875501</v>
+        <v>12.96294466823107</v>
       </c>
       <c r="J17">
-        <v>7.921174011838573</v>
+        <v>5.687145984494366</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.7866004808425</v>
+        <v>8.741653163326756</v>
       </c>
       <c r="M17">
-        <v>17.16605046440856</v>
+        <v>15.67230339628267</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.31122292117611</v>
+        <v>14.65329758945547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.48479007035962</v>
+        <v>25.19567167567625</v>
       </c>
       <c r="C18">
-        <v>11.66670739554633</v>
+        <v>14.24938460997546</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.69768686292266</v>
+        <v>8.89001654745673</v>
       </c>
       <c r="F18">
-        <v>36.81564964128016</v>
+        <v>25.55411040568043</v>
       </c>
       <c r="G18">
-        <v>3.642736643158459</v>
+        <v>2.072279354959602</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.66013545142217</v>
+        <v>13.03233882858287</v>
       </c>
       <c r="J18">
-        <v>7.918924813859786</v>
+        <v>5.6765402485561</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.78210379330886</v>
+        <v>8.693214901624813</v>
       </c>
       <c r="M18">
-        <v>17.12808861854248</v>
+        <v>15.51275306257167</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.33358804182985</v>
+        <v>14.64140599624227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.43939971948488</v>
+        <v>25.08754691450615</v>
       </c>
       <c r="C19">
-        <v>11.64980629983354</v>
+        <v>14.20723480883346</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.70068221596982</v>
+        <v>8.894761008765174</v>
       </c>
       <c r="F19">
-        <v>36.82107555289213</v>
+        <v>25.51854055600384</v>
       </c>
       <c r="G19">
-        <v>3.642894383208431</v>
+        <v>2.072735121014925</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.67124668770049</v>
+        <v>13.05613209591403</v>
       </c>
       <c r="J19">
-        <v>7.918165954704591</v>
+        <v>5.672952064379429</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.78060392431553</v>
+        <v>8.676807031665307</v>
       </c>
       <c r="M19">
-        <v>17.11524112065206</v>
+        <v>15.45842493681756</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.34126551353195</v>
+        <v>14.6377881027391</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.64276502779464</v>
+        <v>25.57077765761623</v>
       </c>
       <c r="C20">
-        <v>11.72562187383949</v>
+        <v>14.39602855480484</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.68731173842813</v>
+        <v>8.873652314850272</v>
       </c>
       <c r="F20">
-        <v>36.79730215669222</v>
+        <v>25.68032936250194</v>
       </c>
       <c r="G20">
-        <v>3.642188850797324</v>
+        <v>2.070689431602138</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.62160302299279</v>
+        <v>12.95024459720464</v>
       </c>
       <c r="J20">
-        <v>7.921591556632815</v>
+        <v>5.689110145161891</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.78744344796025</v>
+        <v>8.750614149191186</v>
       </c>
       <c r="M20">
-        <v>17.17307886428042</v>
+        <v>15.70168620193891</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.30713356132117</v>
+        <v>14.65569411294174</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.30986338451255</v>
+        <v>27.13622847524113</v>
       </c>
       <c r="C21">
-        <v>11.97597890166911</v>
+        <v>15.01465981506518</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.6442925459767</v>
+        <v>8.807032433717827</v>
       </c>
       <c r="F21">
-        <v>36.72871155314687</v>
+        <v>26.25419223524826</v>
       </c>
       <c r="G21">
-        <v>3.639893674619236</v>
+        <v>2.06390533680435</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.46107611786225</v>
+        <v>12.61636160607996</v>
       </c>
       <c r="J21">
-        <v>7.933284835462419</v>
+        <v>5.743575964948929</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.81198604734113</v>
+        <v>8.997907590992215</v>
       </c>
       <c r="M21">
-        <v>17.36767911382992</v>
+        <v>16.49737145284072</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.1997818639016</v>
+        <v>14.74526622305455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.73323260200879</v>
+        <v>28.11645479560255</v>
       </c>
       <c r="C22">
-        <v>12.13616575979494</v>
+        <v>15.40706885573905</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.61759261085568</v>
+        <v>8.766786193938266</v>
       </c>
       <c r="F22">
-        <v>36.69231416659028</v>
+        <v>26.65197967969829</v>
       </c>
       <c r="G22">
-        <v>3.638449533336811</v>
+        <v>2.05953323497419</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.36083715080648</v>
+        <v>12.4159661486169</v>
       </c>
       <c r="J22">
-        <v>7.941060737797912</v>
+        <v>5.779288803092167</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.82917666974289</v>
+        <v>9.158830925860668</v>
       </c>
       <c r="M22">
-        <v>17.49491846870701</v>
+        <v>17.00099911892375</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.13510663744752</v>
+        <v>14.82687971426427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.50846064738608</v>
+        <v>27.59718454350534</v>
       </c>
       <c r="C23">
-        <v>12.05099640226658</v>
+        <v>15.1987333163792</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.63171355384985</v>
+        <v>8.787959209402944</v>
       </c>
       <c r="F23">
-        <v>36.71096757627559</v>
+        <v>26.43758322019331</v>
       </c>
       <c r="G23">
-        <v>3.639215200547753</v>
+        <v>2.061861378200302</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.41390868088627</v>
+        <v>12.52118761971398</v>
       </c>
       <c r="J23">
-        <v>7.936898572788737</v>
+        <v>5.760218534067184</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.81989735703742</v>
+        <v>9.073018111670493</v>
       </c>
       <c r="M23">
-        <v>17.42701262634227</v>
+        <v>16.73371874026703</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.16912155718726</v>
+        <v>14.78113724811064</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.63165653520999</v>
+        <v>25.54446076386515</v>
       </c>
       <c r="C24">
-        <v>11.72147443106513</v>
+        <v>14.38571931972024</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.68803881058837</v>
+        <v>8.874795531507791</v>
       </c>
       <c r="F24">
-        <v>36.79856527940245</v>
+        <v>25.67133130005089</v>
       </c>
       <c r="G24">
-        <v>3.642227311298089</v>
+        <v>2.070801424085051</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.62430563668915</v>
+        <v>12.95598068288619</v>
       </c>
       <c r="J24">
-        <v>7.921402739497255</v>
+        <v>5.688222114950914</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.78706193984763</v>
+        <v>8.746563110400359</v>
       </c>
       <c r="M24">
-        <v>17.16990128796143</v>
+        <v>15.68840805991131</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.30898042315115</v>
+        <v>14.65460314841042</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.63550760343065</v>
+        <v>23.14328843563929</v>
       </c>
       <c r="C25">
-        <v>11.35245202360345</v>
+        <v>13.45915634169556</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.7548941279641</v>
+        <v>8.982053838729664</v>
       </c>
       <c r="F25">
-        <v>36.92911171315973</v>
+        <v>24.94116237224467</v>
       </c>
       <c r="G25">
-        <v>3.645717914546788</v>
+        <v>2.080739598163188</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.87130994244157</v>
+        <v>13.49217135464339</v>
       </c>
       <c r="J25">
-        <v>7.905282837467609</v>
+        <v>5.611162997621111</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.75667324657818</v>
+        <v>8.39267371633294</v>
       </c>
       <c r="M25">
-        <v>16.89376191512868</v>
+        <v>14.49244526189544</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.48323271729157</v>
+        <v>14.60960881281056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21119452556297</v>
+        <v>12.11218253178253</v>
       </c>
       <c r="C2">
-        <v>12.73644126487248</v>
+        <v>7.925409927412126</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.072171272166187</v>
+        <v>19.02127242436641</v>
       </c>
       <c r="F2">
-        <v>24.48422379290933</v>
+        <v>30.13769707145656</v>
       </c>
       <c r="G2">
-        <v>2.088342637068226</v>
+        <v>18.18091339027809</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.11155778689299</v>
       </c>
       <c r="I2">
-        <v>13.93617798874606</v>
+        <v>2.663506440527969</v>
       </c>
       <c r="J2">
-        <v>5.555042219267323</v>
+        <v>8.407931729496283</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.02863423294584</v>
       </c>
       <c r="L2">
-        <v>8.132069294474361</v>
+        <v>5.391719819283296</v>
       </c>
       <c r="M2">
-        <v>13.55598213145854</v>
+        <v>11.26916931507068</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.64646087046922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.49395382656646</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.0578260391809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.79783336229774</v>
+        <v>11.4126931633302</v>
       </c>
       <c r="C3">
-        <v>12.22294321698191</v>
+        <v>7.638277546187535</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.139948049173951</v>
+        <v>18.0853813333033</v>
       </c>
       <c r="F3">
-        <v>24.22330234072851</v>
+        <v>29.15594859825959</v>
       </c>
       <c r="G3">
-        <v>2.093688129477887</v>
+        <v>18.27352001621359</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.335780968686107</v>
       </c>
       <c r="I3">
-        <v>14.26429592851338</v>
+        <v>2.784245931633714</v>
       </c>
       <c r="J3">
-        <v>5.517446738071495</v>
+        <v>8.49372047779584</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.21642536854304</v>
       </c>
       <c r="L3">
-        <v>7.95626970855172</v>
+        <v>5.332533082282861</v>
       </c>
       <c r="M3">
-        <v>12.88869674992491</v>
+        <v>10.74671287925374</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.71059630515493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.65617235381013</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.18749463286452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.87824440767981</v>
+        <v>10.95855022918883</v>
       </c>
       <c r="C4">
-        <v>11.89663487412286</v>
+        <v>7.458682214915023</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.184793950264776</v>
+        <v>17.48714611106464</v>
       </c>
       <c r="F4">
-        <v>24.0864561565282</v>
+        <v>28.54366920928733</v>
       </c>
       <c r="G4">
-        <v>2.097069910720525</v>
+        <v>18.34206071059675</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.478602864462138</v>
       </c>
       <c r="I4">
-        <v>14.47822146594225</v>
+        <v>2.861898939957621</v>
       </c>
       <c r="J4">
-        <v>5.494597297629603</v>
+        <v>8.548660393358777</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.33500549226886</v>
       </c>
       <c r="L4">
-        <v>7.84903256496132</v>
+        <v>5.294698014456037</v>
       </c>
       <c r="M4">
-        <v>12.46388907639418</v>
+        <v>10.41221638132301</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.76779259683238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.11826911274108</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.27222427170332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4904146474483</v>
+        <v>10.76461170325644</v>
       </c>
       <c r="C5">
-        <v>11.76101188253698</v>
+        <v>7.391901023886718</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.203870691881233</v>
+        <v>17.24050242964861</v>
       </c>
       <c r="F5">
-        <v>24.03644574919285</v>
+        <v>28.28664569867831</v>
       </c>
       <c r="G5">
-        <v>2.098473690694349</v>
+        <v>18.36246097397501</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.538216805411721</v>
       </c>
       <c r="I5">
-        <v>14.56840484331501</v>
+        <v>2.897353576961336</v>
       </c>
       <c r="J5">
-        <v>5.485347796281199</v>
+        <v>8.570045763561566</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.38059597008834</v>
       </c>
       <c r="L5">
-        <v>7.805557464361253</v>
+        <v>5.278856532795236</v>
       </c>
       <c r="M5">
-        <v>12.28716669802286</v>
+        <v>10.27395088999547</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.7953594915057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.89618998668551</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.30399359190016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42522324398409</v>
+        <v>10.72869210517099</v>
       </c>
       <c r="C6">
-        <v>11.73833564202262</v>
+        <v>7.389576492597011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.207086487694523</v>
+        <v>17.20272280495691</v>
       </c>
       <c r="F6">
-        <v>24.028485356563</v>
+        <v>28.23717932433136</v>
       </c>
       <c r="G6">
-        <v>2.098708355833548</v>
+        <v>18.3533955920996</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.54831973988711</v>
       </c>
       <c r="I6">
-        <v>14.58355794119583</v>
+        <v>2.90705873676949</v>
       </c>
       <c r="J6">
-        <v>5.48381574219662</v>
+        <v>8.571718147166624</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.38388202835188</v>
       </c>
       <c r="L6">
-        <v>7.798353454847644</v>
+        <v>5.276149429022953</v>
       </c>
       <c r="M6">
-        <v>12.25761011913128</v>
+        <v>10.25248637497564</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.80018777141224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.86248796448873</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.30445060582054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.87306709020956</v>
+        <v>10.94700577943182</v>
       </c>
       <c r="C7">
-        <v>11.89481637051088</v>
+        <v>7.48159688139612</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.185047993620064</v>
+        <v>17.49327268420679</v>
       </c>
       <c r="F7">
-        <v>24.08575856483245</v>
+        <v>28.52221463335166</v>
       </c>
       <c r="G7">
-        <v>2.097088737817914</v>
+        <v>18.30786024000833</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.479733188636877</v>
       </c>
       <c r="I7">
-        <v>14.47942569082114</v>
+        <v>2.872317510893687</v>
       </c>
       <c r="J7">
-        <v>5.494472301458591</v>
+        <v>8.543733776727946</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.32378889563717</v>
       </c>
       <c r="L7">
-        <v>7.848445270092242</v>
+        <v>5.294353741920202</v>
       </c>
       <c r="M7">
-        <v>12.46152008372343</v>
+        <v>10.41493548016416</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.76814741952233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.12470037446582</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.25929084341933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73457170829226</v>
+        <v>11.86511687096595</v>
       </c>
       <c r="C8">
-        <v>12.56174110144341</v>
+        <v>7.857564299120713</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.094863548327726</v>
+        <v>18.71532560516738</v>
       </c>
       <c r="F8">
-        <v>24.38934377022339</v>
+        <v>29.77858293252879</v>
       </c>
       <c r="G8">
-        <v>2.090165470631884</v>
+        <v>18.16480526596298</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.188214401024788</v>
       </c>
       <c r="I8">
-        <v>14.04664619689349</v>
+        <v>2.717113214023183</v>
       </c>
       <c r="J8">
-        <v>5.542032406608467</v>
+        <v>8.430182722248356</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.07711695697379</v>
       </c>
       <c r="L8">
-        <v>8.071335656596791</v>
+        <v>5.371506384326119</v>
       </c>
       <c r="M8">
-        <v>13.32913555006634</v>
+        <v>11.09773890328201</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.66474304811994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.221633889613</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.08380562840009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.97740557573597</v>
+        <v>13.48232334881546</v>
       </c>
       <c r="C9">
-        <v>13.77773177118316</v>
+        <v>8.52608423222577</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.944157843850462</v>
+        <v>20.90190858848886</v>
       </c>
       <c r="F9">
-        <v>25.17441560442333</v>
+        <v>32.18443873264555</v>
       </c>
       <c r="G9">
-        <v>2.077349587754139</v>
+        <v>18.04517679829388</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.656110739745034</v>
       </c>
       <c r="I9">
-        <v>13.30339099695489</v>
+        <v>2.531892923821938</v>
       </c>
       <c r="J9">
-        <v>5.637031504844648</v>
+        <v>8.235116137764612</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.64055506521976</v>
       </c>
       <c r="L9">
-        <v>8.511992825057218</v>
+        <v>5.511205124836593</v>
       </c>
       <c r="M9">
-        <v>14.9042269893648</v>
+        <v>12.31634571533499</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.61330193411663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.1657280852661</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.80607153715552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.11617400644388</v>
+        <v>14.56577585458433</v>
       </c>
       <c r="C10">
-        <v>14.61037195941767</v>
+        <v>9.009083325257428</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.850129222911827</v>
+        <v>22.05466437598786</v>
       </c>
       <c r="F10">
-        <v>25.87164829712273</v>
+        <v>33.56737869895222</v>
       </c>
       <c r="G10">
-        <v>2.068353262156341</v>
+        <v>17.89826282597283</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.812703717430377</v>
       </c>
       <c r="I10">
-        <v>12.83222247855318</v>
+        <v>2.727601573429611</v>
       </c>
       <c r="J10">
-        <v>5.70772102323225</v>
+        <v>8.085120112883864</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.30281915338489</v>
       </c>
       <c r="L10">
-        <v>8.8353719951415</v>
+        <v>5.614674985268183</v>
       </c>
       <c r="M10">
-        <v>15.97761924524765</v>
+        <v>13.15393649528952</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.68134957113345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.3162395287714</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.58169589852858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.03729842511101</v>
+        <v>15.20342340544256</v>
       </c>
       <c r="C11">
-        <v>14.97526324222845</v>
+        <v>9.265023749469277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.81115919284059</v>
+        <v>19.74182724431822</v>
       </c>
       <c r="F11">
-        <v>26.2156848089778</v>
+        <v>31.5120230077403</v>
       </c>
       <c r="G11">
-        <v>2.064341239602764</v>
+        <v>16.82750163769627</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.734834622440825</v>
       </c>
       <c r="I11">
-        <v>12.63699120394335</v>
+        <v>2.798031890497406</v>
       </c>
       <c r="J11">
-        <v>5.740039559375264</v>
+        <v>7.874579978369852</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.90639184990846</v>
       </c>
       <c r="L11">
-        <v>8.98192029132502</v>
+        <v>5.783050589425972</v>
       </c>
       <c r="M11">
-        <v>16.44676300754358</v>
+        <v>13.63881357833461</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.73814086563068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.45927150293576</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.09865844874179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.37874334616538</v>
+        <v>15.53517169807966</v>
       </c>
       <c r="C12">
-        <v>15.11139976942891</v>
+        <v>9.35027675578873</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.796965700788482</v>
+        <v>17.55081522631533</v>
       </c>
       <c r="F12">
-        <v>26.34986260556192</v>
+        <v>29.49537732103941</v>
       </c>
       <c r="G12">
-        <v>2.062832638455061</v>
+        <v>16.00278023566206</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.036967331630466</v>
       </c>
       <c r="I12">
-        <v>12.5660908013047</v>
+        <v>2.812897606472184</v>
       </c>
       <c r="J12">
-        <v>5.75229806800048</v>
+        <v>7.736901208980488</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.67115503458034</v>
       </c>
       <c r="L12">
-        <v>9.037297807326725</v>
+        <v>5.972447260950178</v>
       </c>
       <c r="M12">
-        <v>16.62160677396587</v>
+        <v>13.87331955785894</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.76358796843117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.47424675062314</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.76005242258402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.30553323227623</v>
+        <v>15.65098771003122</v>
       </c>
       <c r="C13">
-        <v>15.08217163049873</v>
+        <v>9.342579489455929</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.799997179893591</v>
+        <v>15.29417804367496</v>
       </c>
       <c r="F13">
-        <v>26.32079115088068</v>
+        <v>27.32873594742474</v>
       </c>
       <c r="G13">
-        <v>2.06315708345992</v>
+        <v>15.26729546090498</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.488161241281151</v>
       </c>
       <c r="I13">
-        <v>12.58122084109881</v>
+        <v>2.79141346238189</v>
       </c>
       <c r="J13">
-        <v>5.749657128929559</v>
+        <v>7.639462611040418</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.52887535158568</v>
       </c>
       <c r="L13">
-        <v>9.025377025488392</v>
+        <v>6.18139032613209</v>
       </c>
       <c r="M13">
-        <v>16.58407678737015</v>
+        <v>13.94084204248304</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.75792866333483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.31416246368388</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.49344858403062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06553640638702</v>
+        <v>15.63398588193893</v>
       </c>
       <c r="C14">
-        <v>14.98650436797669</v>
+        <v>9.301583507534275</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.80998009092157</v>
+        <v>13.68819040963411</v>
       </c>
       <c r="F14">
-        <v>26.22664539047707</v>
+        <v>25.73224464809395</v>
       </c>
       <c r="G14">
-        <v>2.064216917744179</v>
+        <v>14.7933703543253</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.517880183089551</v>
       </c>
       <c r="I14">
-        <v>12.6310957206355</v>
+        <v>2.7613192105836</v>
       </c>
       <c r="J14">
-        <v>5.741047686969259</v>
+        <v>7.589271963959769</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.47187375977676</v>
       </c>
       <c r="L14">
-        <v>8.986478778468156</v>
+        <v>6.341258147000159</v>
       </c>
       <c r="M14">
-        <v>16.46120411101093</v>
+        <v>13.91454259636964</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.74015415310534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.41018330414795</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.3397338895395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9175748868723</v>
+        <v>15.58049215949282</v>
       </c>
       <c r="C15">
-        <v>14.92763865398958</v>
+        <v>9.280031707942152</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.81616882326845</v>
+        <v>13.28195097095965</v>
       </c>
       <c r="F15">
-        <v>26.16948701369303</v>
+        <v>25.30656583352179</v>
       </c>
       <c r="G15">
-        <v>2.064867457807027</v>
+        <v>14.68842669123558</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.756691279547146</v>
       </c>
       <c r="I15">
-        <v>12.66204906074491</v>
+        <v>2.747754356996459</v>
       </c>
       <c r="J15">
-        <v>5.735776694245875</v>
+        <v>7.584157817225357</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.47386550067208</v>
       </c>
       <c r="L15">
-        <v>8.962636193166992</v>
+        <v>6.37600751998212</v>
       </c>
       <c r="M15">
-        <v>16.38557358498532</v>
+        <v>13.87359234327294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.72978663057455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.1535801719164</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.31398628895445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05494101512268</v>
+        <v>15.11971514881698</v>
       </c>
       <c r="C16">
-        <v>14.58624211971535</v>
+        <v>9.092936175604395</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.852753945967553</v>
+        <v>13.12773960397421</v>
       </c>
       <c r="F16">
-        <v>25.84970853177851</v>
+        <v>25.064934071431</v>
       </c>
       <c r="G16">
-        <v>2.068617000275746</v>
+        <v>14.88642515007646</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.553944084368259</v>
       </c>
       <c r="I16">
-        <v>12.845389023265</v>
+        <v>2.671623926585395</v>
       </c>
       <c r="J16">
-        <v>5.705611918936152</v>
+        <v>7.66571238846947</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.64226551403107</v>
       </c>
       <c r="L16">
-        <v>8.825780249260648</v>
+        <v>6.286541280093324</v>
       </c>
       <c r="M16">
-        <v>15.9465690010031</v>
+        <v>13.52144903922484</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.67817752999189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.83469167589451</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.4600993502321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51253269741045</v>
+        <v>14.76713426381559</v>
       </c>
       <c r="C17">
-        <v>14.37321619433659</v>
+        <v>8.970916583688572</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.876183494612299</v>
+        <v>13.8805580078909</v>
       </c>
       <c r="F17">
-        <v>25.66044361217143</v>
+        <v>25.7454315172057</v>
       </c>
       <c r="G17">
-        <v>2.070937204654904</v>
+        <v>15.28396995414459</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.820206869982949</v>
       </c>
       <c r="I17">
-        <v>12.96294466823107</v>
+        <v>2.629326285368114</v>
       </c>
       <c r="J17">
-        <v>5.687145984494366</v>
+        <v>7.754389535759549</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.79977001379504</v>
       </c>
       <c r="L17">
-        <v>8.741653163326756</v>
+        <v>6.127127378377838</v>
       </c>
       <c r="M17">
-        <v>15.67230339628267</v>
+        <v>13.26091633140444</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.65329758945547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.09040726338073</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.65150362037091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19567167567625</v>
+        <v>14.48091762116335</v>
       </c>
       <c r="C18">
-        <v>14.24938460997546</v>
+        <v>8.874434801907819</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.89001654745673</v>
+        <v>15.54733966697342</v>
       </c>
       <c r="F18">
-        <v>25.55411040568043</v>
+        <v>27.31974341060585</v>
       </c>
       <c r="G18">
-        <v>2.072279354959602</v>
+        <v>15.92769366159087</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.565843709519283</v>
       </c>
       <c r="I18">
-        <v>13.03233882858287</v>
+        <v>2.607816983009552</v>
       </c>
       <c r="J18">
-        <v>5.6765402485561</v>
+        <v>7.863749439276766</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.97914106176817</v>
       </c>
       <c r="L18">
-        <v>8.693214901624813</v>
+        <v>5.915245428367304</v>
       </c>
       <c r="M18">
-        <v>15.51275306257167</v>
+        <v>13.05101843695588</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.64140599624227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.86706456101014</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.91577276816505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08754691450615</v>
+        <v>14.26088699425217</v>
       </c>
       <c r="C19">
-        <v>14.20723480883346</v>
+        <v>8.849283855441595</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.894761008765174</v>
+        <v>17.87353150850503</v>
       </c>
       <c r="F19">
-        <v>25.51854055600384</v>
+        <v>29.47426323901469</v>
       </c>
       <c r="G19">
-        <v>2.072735121014925</v>
+        <v>16.68210057146202</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.066272017345977</v>
       </c>
       <c r="I19">
-        <v>13.05613209591403</v>
+        <v>2.616145324857861</v>
       </c>
       <c r="J19">
-        <v>5.672952064379429</v>
+        <v>7.975998970679436</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.15755676912958</v>
       </c>
       <c r="L19">
-        <v>8.676807031665307</v>
+        <v>5.722924949007302</v>
       </c>
       <c r="M19">
-        <v>15.45842493681756</v>
+        <v>12.90888204557806</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.6377881027391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.006803365025</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.20546880709901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.57077765761623</v>
+        <v>14.26867834832331</v>
       </c>
       <c r="C20">
-        <v>14.39602855480484</v>
+        <v>8.949494577679575</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.873652314850272</v>
+        <v>21.76698284191162</v>
       </c>
       <c r="F20">
-        <v>25.68032936250194</v>
+        <v>33.14651670639254</v>
       </c>
       <c r="G20">
-        <v>2.070689431602138</v>
+        <v>17.82135271157814</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.72051085289701</v>
       </c>
       <c r="I20">
-        <v>12.95024459720464</v>
+        <v>2.689091262997804</v>
       </c>
       <c r="J20">
-        <v>5.689110145161891</v>
+        <v>8.107077621002295</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.35302308095885</v>
       </c>
       <c r="L20">
-        <v>8.750614149191186</v>
+        <v>5.588281020389417</v>
       </c>
       <c r="M20">
-        <v>15.70168620193891</v>
+        <v>12.95206136581731</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.65569411294174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.03709939940274</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.59544518317131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.13622847524113</v>
+        <v>15.03405570882452</v>
       </c>
       <c r="C21">
-        <v>15.01465981506518</v>
+        <v>9.296088329280309</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.807032433717827</v>
+        <v>23.12033273368676</v>
       </c>
       <c r="F21">
-        <v>26.25419223524826</v>
+        <v>34.67292027481022</v>
       </c>
       <c r="G21">
-        <v>2.06390533680435</v>
+        <v>17.93005426774252</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.000959355497078</v>
       </c>
       <c r="I21">
-        <v>12.61636160607996</v>
+        <v>2.838361871991794</v>
       </c>
       <c r="J21">
-        <v>5.743575964948929</v>
+        <v>8.023982387589532</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.14900658359001</v>
       </c>
       <c r="L21">
-        <v>8.997907590992215</v>
+        <v>5.653582177934361</v>
       </c>
       <c r="M21">
-        <v>16.49737145284072</v>
+        <v>13.54737787466536</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.74526622305455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.12216814407599</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.50812127306709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.11645479560255</v>
+        <v>15.53112958296493</v>
       </c>
       <c r="C22">
-        <v>15.40706885573905</v>
+        <v>9.493324248098519</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.766786193938266</v>
+        <v>23.80013682811066</v>
       </c>
       <c r="F22">
-        <v>26.65197967969829</v>
+        <v>35.51444024983532</v>
       </c>
       <c r="G22">
-        <v>2.05953323497419</v>
+        <v>18.00298988661026</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.172887555822617</v>
       </c>
       <c r="I22">
-        <v>12.4159661486169</v>
+        <v>2.928375239163031</v>
       </c>
       <c r="J22">
-        <v>5.779288803092167</v>
+        <v>7.970614063420657</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.0202450221258</v>
       </c>
       <c r="L22">
-        <v>9.158830925860668</v>
+        <v>5.69897363708577</v>
       </c>
       <c r="M22">
-        <v>17.00099911892375</v>
+        <v>13.92445015047796</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82687971426427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.71714272443797</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.45294732641351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59718454350534</v>
+        <v>15.27573186871257</v>
       </c>
       <c r="C23">
-        <v>15.1987333163792</v>
+        <v>9.364488483828543</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.787959209402944</v>
+        <v>23.43100151562515</v>
       </c>
       <c r="F23">
-        <v>26.43758322019331</v>
+        <v>35.08400934067549</v>
       </c>
       <c r="G23">
-        <v>2.061861378200302</v>
+        <v>18.00226865877286</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.081734964488068</v>
       </c>
       <c r="I23">
-        <v>12.52118761971398</v>
+        <v>2.875762122361172</v>
       </c>
       <c r="J23">
-        <v>5.760218534067184</v>
+        <v>8.004925487039326</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.10253690591485</v>
       </c>
       <c r="L23">
-        <v>9.073018111670493</v>
+        <v>5.674830235151103</v>
       </c>
       <c r="M23">
-        <v>16.73371874026703</v>
+        <v>13.72003252336821</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.78113724811064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.39350451023005</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.49748224362015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.54446076386515</v>
+        <v>14.25157772111216</v>
       </c>
       <c r="C24">
-        <v>14.38571931972024</v>
+        <v>8.904954638305941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.874795531507791</v>
+        <v>21.99706144480125</v>
       </c>
       <c r="F24">
-        <v>25.67133130005089</v>
+        <v>33.3954455169776</v>
       </c>
       <c r="G24">
-        <v>2.070801424085051</v>
+        <v>17.96979508886162</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.728472397843699</v>
       </c>
       <c r="I24">
-        <v>12.95598068288619</v>
+        <v>2.680739416284194</v>
       </c>
       <c r="J24">
-        <v>5.688222114950914</v>
+        <v>8.13031824612542</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.39897361339791</v>
       </c>
       <c r="L24">
-        <v>8.746563110400359</v>
+        <v>5.581037941628211</v>
       </c>
       <c r="M24">
-        <v>15.68840805991131</v>
+        <v>12.92445963252467</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.65460314841042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.13366984461862</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.65463379553502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14328843563929</v>
+        <v>13.05249036411034</v>
       </c>
       <c r="C25">
-        <v>13.45915634169556</v>
+        <v>8.388177949030602</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.982053838729664</v>
+        <v>20.34684728100385</v>
       </c>
       <c r="F25">
-        <v>24.94116237224467</v>
+        <v>31.515550750018</v>
       </c>
       <c r="G25">
-        <v>2.080739598163188</v>
+        <v>18.00412418145953</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.796368351804734</v>
       </c>
       <c r="I25">
-        <v>13.49217135464339</v>
+        <v>2.519111818083744</v>
       </c>
       <c r="J25">
-        <v>5.611162997621111</v>
+        <v>8.276560195994962</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.73466286419438</v>
       </c>
       <c r="L25">
-        <v>8.39267371633294</v>
+        <v>5.474586116800896</v>
       </c>
       <c r="M25">
-        <v>14.49244526189544</v>
+        <v>12.00670493327709</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.60960881281056</v>
+        <v>16.67537482230567</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.85230405146189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.11218253178253</v>
+        <v>12.13226725350142</v>
       </c>
       <c r="C2">
-        <v>7.925409927412126</v>
+        <v>7.821346822944254</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.02127242436641</v>
+        <v>19.13059311080322</v>
       </c>
       <c r="F2">
-        <v>30.13769707145656</v>
+        <v>29.98550492609113</v>
       </c>
       <c r="G2">
-        <v>18.18091339027809</v>
+        <v>17.06670790977385</v>
       </c>
       <c r="H2">
-        <v>2.11155778689299</v>
+        <v>2.089227679640774</v>
       </c>
       <c r="I2">
-        <v>2.663506440527969</v>
+        <v>2.573487992176183</v>
       </c>
       <c r="J2">
-        <v>8.407931729496283</v>
+        <v>8.714662185961073</v>
       </c>
       <c r="K2">
-        <v>13.02863423294584</v>
+        <v>12.71631380283946</v>
       </c>
       <c r="L2">
-        <v>5.391719819283296</v>
+        <v>10.92541926645915</v>
       </c>
       <c r="M2">
-        <v>11.26916931507068</v>
+        <v>7.840786436132078</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.378455840191738</v>
       </c>
       <c r="O2">
-        <v>15.49395382656646</v>
+        <v>11.3027534614592</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.0578260391809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.58029947217594</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.84702681634633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.4126931633302</v>
+        <v>11.46206000939222</v>
       </c>
       <c r="C3">
-        <v>7.638277546187535</v>
+        <v>7.455350785718838</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.0853813333033</v>
+        <v>18.18664029850118</v>
       </c>
       <c r="F3">
-        <v>29.15594859825959</v>
+        <v>29.0347867055918</v>
       </c>
       <c r="G3">
-        <v>18.27352001621359</v>
+        <v>17.23308555959566</v>
       </c>
       <c r="H3">
-        <v>2.335780968686107</v>
+        <v>2.309133915861333</v>
       </c>
       <c r="I3">
-        <v>2.784245931633714</v>
+        <v>2.680246458345656</v>
       </c>
       <c r="J3">
-        <v>8.49372047779584</v>
+        <v>8.773542984402919</v>
       </c>
       <c r="K3">
-        <v>13.21642536854304</v>
+        <v>12.90496778338854</v>
       </c>
       <c r="L3">
-        <v>5.332533082282861</v>
+        <v>11.10619046357529</v>
       </c>
       <c r="M3">
-        <v>10.74671287925374</v>
+        <v>7.988523825912018</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.317236915977949</v>
       </c>
       <c r="O3">
-        <v>14.65617235381013</v>
+        <v>10.77315740544505</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.18749463286452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.72768452677727</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.98746097305088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.95855022918883</v>
+        <v>11.02736511540989</v>
       </c>
       <c r="C4">
-        <v>7.458682214915023</v>
+        <v>7.225595521007495</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.48714611106464</v>
+        <v>17.58382483183465</v>
       </c>
       <c r="F4">
-        <v>28.54366920928733</v>
+        <v>28.44158246531704</v>
       </c>
       <c r="G4">
-        <v>18.34206071059675</v>
+        <v>17.34713172257566</v>
       </c>
       <c r="H4">
-        <v>2.478602864462138</v>
+        <v>2.449224189893033</v>
       </c>
       <c r="I4">
-        <v>2.861898939957621</v>
+        <v>2.749246790876469</v>
       </c>
       <c r="J4">
-        <v>8.548660393358777</v>
+        <v>8.810752974201888</v>
       </c>
       <c r="K4">
-        <v>13.33500549226886</v>
+        <v>13.02327288988996</v>
       </c>
       <c r="L4">
-        <v>5.294698014456037</v>
+        <v>11.22286222965044</v>
       </c>
       <c r="M4">
-        <v>10.41221638132301</v>
+        <v>8.094317746100556</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.27818226637781</v>
       </c>
       <c r="O4">
-        <v>14.11826911274108</v>
+        <v>10.43425085802833</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.27222427170332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.18030631385379</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.07778270395528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.76461170325644</v>
+        <v>10.84180367434855</v>
       </c>
       <c r="C5">
-        <v>7.391901023886718</v>
+        <v>7.13837631971928</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.24050242964861</v>
+        <v>17.33536204770229</v>
       </c>
       <c r="F5">
-        <v>28.28664569867831</v>
+        <v>28.19241810803438</v>
       </c>
       <c r="G5">
-        <v>18.36246097397501</v>
+        <v>17.38611692332922</v>
       </c>
       <c r="H5">
-        <v>2.538216805411721</v>
+        <v>2.507700626218638</v>
       </c>
       <c r="I5">
-        <v>2.897353576961336</v>
+        <v>2.781682275571996</v>
       </c>
       <c r="J5">
-        <v>8.570045763561566</v>
+        <v>8.824624341484496</v>
       </c>
       <c r="K5">
-        <v>13.38059597008834</v>
+        <v>13.06867201179895</v>
       </c>
       <c r="L5">
-        <v>5.278856532795236</v>
+        <v>11.26798791155337</v>
       </c>
       <c r="M5">
-        <v>10.27395088999547</v>
+        <v>8.139962063157892</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.261856883618722</v>
       </c>
       <c r="O5">
-        <v>13.89618998668551</v>
+        <v>10.29417148139519</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.30399359190016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.95422508058942</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.11167120674139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.72869210517099</v>
+        <v>10.80738730141577</v>
       </c>
       <c r="C6">
-        <v>7.389576492597011</v>
+        <v>7.133116547101065</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.20272280495691</v>
+        <v>17.29720956673883</v>
       </c>
       <c r="F6">
-        <v>28.23717932433136</v>
+        <v>28.14438531201093</v>
       </c>
       <c r="G6">
-        <v>18.3533955920996</v>
+        <v>17.38017235730882</v>
       </c>
       <c r="H6">
-        <v>2.54831973988711</v>
+        <v>2.517609338024368</v>
       </c>
       <c r="I6">
-        <v>2.90705873676949</v>
+        <v>2.791577563007901</v>
       </c>
       <c r="J6">
-        <v>8.571718147166624</v>
+        <v>8.825041804172717</v>
       </c>
       <c r="K6">
-        <v>13.38388202835188</v>
+        <v>13.07205882893333</v>
       </c>
       <c r="L6">
-        <v>5.276149429022953</v>
+        <v>11.27089666029702</v>
       </c>
       <c r="M6">
-        <v>10.25248637497564</v>
+        <v>8.146330300440313</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.259076678449877</v>
       </c>
       <c r="O6">
-        <v>13.86248796448873</v>
+        <v>10.27238113440964</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.30445060582054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.91978036189687</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.11257304239061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94700577943182</v>
+        <v>11.016476333387</v>
       </c>
       <c r="C7">
-        <v>7.48159688139612</v>
+        <v>7.245233611763527</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.49327268420679</v>
+        <v>17.59659314680028</v>
       </c>
       <c r="F7">
-        <v>28.52221463335166</v>
+        <v>28.411024822874</v>
       </c>
       <c r="G7">
-        <v>18.30786024000833</v>
+        <v>17.37073937154305</v>
       </c>
       <c r="H7">
-        <v>2.479733188636877</v>
+        <v>2.450588042556486</v>
       </c>
       <c r="I7">
-        <v>2.872317510893687</v>
+        <v>2.761894146921806</v>
       </c>
       <c r="J7">
-        <v>8.543733776727946</v>
+        <v>8.782033068061274</v>
       </c>
       <c r="K7">
-        <v>13.32378889563717</v>
+        <v>13.00828537562184</v>
       </c>
       <c r="L7">
-        <v>5.294353741920202</v>
+        <v>11.20660757612867</v>
       </c>
       <c r="M7">
-        <v>10.41493548016416</v>
+        <v>8.08888934398715</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.277838849276913</v>
       </c>
       <c r="O7">
-        <v>14.12470037446582</v>
+        <v>10.43538812407355</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.25929084341933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.18942150993328</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.05779492963406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86511687096595</v>
+        <v>11.89628907276822</v>
       </c>
       <c r="C8">
-        <v>7.857564299120713</v>
+        <v>7.714715222452331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.71532560516738</v>
+        <v>18.84313020633137</v>
       </c>
       <c r="F8">
-        <v>29.77858293252879</v>
+        <v>29.60712448680499</v>
       </c>
       <c r="G8">
-        <v>18.16480526596298</v>
+        <v>17.27022687796655</v>
       </c>
       <c r="H8">
-        <v>2.188214401024788</v>
+        <v>2.165186607416301</v>
       </c>
       <c r="I8">
-        <v>2.717113214023183</v>
+        <v>2.625987020708324</v>
       </c>
       <c r="J8">
-        <v>8.430182722248356</v>
+        <v>8.651555263712289</v>
       </c>
       <c r="K8">
-        <v>13.07711695697379</v>
+        <v>12.75248524236485</v>
       </c>
       <c r="L8">
-        <v>5.371506384326119</v>
+        <v>10.9593156453582</v>
       </c>
       <c r="M8">
-        <v>11.09773890328201</v>
+        <v>7.873123913301844</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.357623145215744</v>
       </c>
       <c r="O8">
-        <v>15.221633889613</v>
+        <v>11.12417610017483</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.08380562840009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.31177524419539</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.85305241168025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.48232334881546</v>
+        <v>13.44812574215776</v>
       </c>
       <c r="C9">
-        <v>8.52608423222577</v>
+        <v>8.564887154443056</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.90190858848886</v>
+        <v>21.054856184414</v>
       </c>
       <c r="F9">
-        <v>32.18443873264555</v>
+        <v>31.93076856770152</v>
       </c>
       <c r="G9">
-        <v>18.04517679829388</v>
+        <v>17.02575477054784</v>
       </c>
       <c r="H9">
-        <v>1.656110739745034</v>
+        <v>1.64355014627851</v>
       </c>
       <c r="I9">
-        <v>2.531892923821938</v>
+        <v>2.596350579584754</v>
       </c>
       <c r="J9">
-        <v>8.235116137764612</v>
+        <v>8.49551221909784</v>
       </c>
       <c r="K9">
-        <v>12.64055506521976</v>
+        <v>12.30512053722789</v>
       </c>
       <c r="L9">
-        <v>5.511205124836593</v>
+        <v>10.55494294573384</v>
       </c>
       <c r="M9">
-        <v>12.31634571533499</v>
+        <v>7.59086097704883</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.502661413026543</v>
       </c>
       <c r="O9">
-        <v>17.1657280852661</v>
+        <v>12.35949345010205</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.80607153715552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.29189467553941</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.53529791206944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56577585458433</v>
+        <v>14.49347580324052</v>
       </c>
       <c r="C10">
-        <v>9.009083325257428</v>
+        <v>9.144465408418714</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.05466437598786</v>
+        <v>22.25668168445606</v>
       </c>
       <c r="F10">
-        <v>33.56737869895222</v>
+        <v>33.21312170938938</v>
       </c>
       <c r="G10">
-        <v>17.89826282597283</v>
+        <v>17.15173783716024</v>
       </c>
       <c r="H10">
-        <v>1.812703717430377</v>
+        <v>1.816790541817497</v>
       </c>
       <c r="I10">
-        <v>2.727601573429611</v>
+        <v>2.769511885615448</v>
       </c>
       <c r="J10">
-        <v>8.085120112883864</v>
+        <v>8.248451464085326</v>
       </c>
       <c r="K10">
-        <v>12.30281915338489</v>
+        <v>11.93816124773686</v>
       </c>
       <c r="L10">
-        <v>5.614674985268183</v>
+        <v>10.25401311358742</v>
       </c>
       <c r="M10">
-        <v>13.15393649528952</v>
+        <v>7.417850653550019</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.611995872171273</v>
       </c>
       <c r="O10">
-        <v>18.3162395287714</v>
+        <v>13.20084884737774</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.58169589852858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.47755005193634</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.23851225240261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.20342340544256</v>
+        <v>15.13409645212904</v>
       </c>
       <c r="C11">
-        <v>9.265023749469277</v>
+        <v>9.359569094751393</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.74182724431822</v>
+        <v>19.99835603430746</v>
       </c>
       <c r="F11">
-        <v>31.5120230077403</v>
+        <v>31.07462853748739</v>
       </c>
       <c r="G11">
-        <v>16.82750163769627</v>
+        <v>16.86500728970943</v>
       </c>
       <c r="H11">
-        <v>2.734834622440825</v>
+        <v>2.734709467437673</v>
       </c>
       <c r="I11">
-        <v>2.798031890497406</v>
+        <v>2.831472691250345</v>
       </c>
       <c r="J11">
-        <v>7.874579978369852</v>
+        <v>7.888988430780129</v>
       </c>
       <c r="K11">
-        <v>11.90639184990846</v>
+        <v>11.54808771013988</v>
       </c>
       <c r="L11">
-        <v>5.783050589425972</v>
+        <v>9.992970771021998</v>
       </c>
       <c r="M11">
-        <v>13.63881357833461</v>
+        <v>7.126960128351111</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.799295655370218</v>
       </c>
       <c r="O11">
-        <v>17.45927150293576</v>
+        <v>13.66760494294164</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.09865844874179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.6409455056748</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.70294491771152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53517169807966</v>
+        <v>15.47495242668171</v>
       </c>
       <c r="C12">
-        <v>9.35027675578873</v>
+        <v>9.400707407579194</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.55081522631533</v>
+        <v>17.82007456377024</v>
       </c>
       <c r="F12">
-        <v>29.49537732103941</v>
+        <v>29.03903514799205</v>
       </c>
       <c r="G12">
-        <v>16.00278023566206</v>
+        <v>16.40484205709184</v>
       </c>
       <c r="H12">
-        <v>4.036967331630466</v>
+        <v>4.036309469183035</v>
       </c>
       <c r="I12">
-        <v>2.812897606472184</v>
+        <v>2.842951580406603</v>
       </c>
       <c r="J12">
-        <v>7.736901208980488</v>
+        <v>7.749482083810887</v>
       </c>
       <c r="K12">
-        <v>11.67115503458034</v>
+        <v>11.34050525611431</v>
       </c>
       <c r="L12">
-        <v>5.972447260950178</v>
+        <v>9.871238603234541</v>
       </c>
       <c r="M12">
-        <v>13.87331955785894</v>
+        <v>6.944171068709679</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.003661376492154</v>
       </c>
       <c r="O12">
-        <v>16.47424675062314</v>
+        <v>13.88984890753814</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.76005242258402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.65786612493289</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.36613816863214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65098771003122</v>
+        <v>15.60446941150867</v>
       </c>
       <c r="C13">
-        <v>9.342579489455929</v>
+        <v>9.353782232377567</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.29417804367496</v>
+        <v>15.53223848667132</v>
       </c>
       <c r="F13">
-        <v>27.32873594742474</v>
+        <v>26.92092594959631</v>
       </c>
       <c r="G13">
-        <v>15.26729546090498</v>
+        <v>15.56888685731163</v>
       </c>
       <c r="H13">
-        <v>5.488161241281151</v>
+        <v>5.488307254256752</v>
       </c>
       <c r="I13">
-        <v>2.79141346238189</v>
+        <v>2.823980197345952</v>
       </c>
       <c r="J13">
-        <v>7.639462611040418</v>
+        <v>7.727104572654454</v>
       </c>
       <c r="K13">
-        <v>11.52887535158568</v>
+        <v>11.24529839080006</v>
       </c>
       <c r="L13">
-        <v>6.18139032613209</v>
+        <v>9.821782270278632</v>
       </c>
       <c r="M13">
-        <v>13.94084204248304</v>
+        <v>6.832671151170025</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.219599831046136</v>
       </c>
       <c r="O13">
-        <v>15.31416246368388</v>
+        <v>13.95137404621955</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.49344858403062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.47976150855161</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.15463047560078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.63398588193893</v>
+        <v>15.59932404068618</v>
       </c>
       <c r="C14">
-        <v>9.301583507534275</v>
+        <v>9.287040624263721</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.68819040963411</v>
+        <v>13.88609249693349</v>
       </c>
       <c r="F14">
-        <v>25.73224464809395</v>
+        <v>25.387411577049</v>
       </c>
       <c r="G14">
-        <v>14.7933703543253</v>
+        <v>14.83440451235201</v>
       </c>
       <c r="H14">
-        <v>6.517880183089551</v>
+        <v>6.517556044508521</v>
       </c>
       <c r="I14">
-        <v>2.7613192105836</v>
+        <v>2.7986384403856</v>
       </c>
       <c r="J14">
-        <v>7.589271963959769</v>
+        <v>7.748675555308828</v>
       </c>
       <c r="K14">
-        <v>11.47187375977676</v>
+        <v>11.22518020719784</v>
       </c>
       <c r="L14">
-        <v>6.341258147000159</v>
+        <v>9.812838492342172</v>
       </c>
       <c r="M14">
-        <v>13.91454259636964</v>
+        <v>6.788496502997847</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.378810829950254</v>
       </c>
       <c r="O14">
-        <v>14.41018330414795</v>
+        <v>13.92351594974457</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.3397338895395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.55416274907257</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.05831356269266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.58049215949282</v>
+        <v>15.54984393652202</v>
       </c>
       <c r="C15">
-        <v>9.280031707942152</v>
+        <v>9.259881429532301</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.28195097095965</v>
+        <v>13.46318807960029</v>
       </c>
       <c r="F15">
-        <v>25.30656583352179</v>
+        <v>24.98927851338582</v>
       </c>
       <c r="G15">
-        <v>14.68842669123558</v>
+        <v>14.59059100405381</v>
       </c>
       <c r="H15">
-        <v>6.756691279547146</v>
+        <v>6.756137907793336</v>
       </c>
       <c r="I15">
-        <v>2.747754356996459</v>
+        <v>2.788008178230516</v>
       </c>
       <c r="J15">
-        <v>7.584157817225357</v>
+        <v>7.770954347534316</v>
       </c>
       <c r="K15">
-        <v>11.47386550067208</v>
+        <v>11.23822072351767</v>
       </c>
       <c r="L15">
-        <v>6.37600751998212</v>
+        <v>9.820029263924281</v>
       </c>
       <c r="M15">
-        <v>13.87359234327294</v>
+        <v>6.79055284657125</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.411322933175685</v>
       </c>
       <c r="O15">
-        <v>14.1535801719164</v>
+        <v>13.88334070618646</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.31398628895445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.2884025412042</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.05453509759358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11971514881698</v>
+        <v>15.09956381376987</v>
       </c>
       <c r="C16">
-        <v>9.092936175604395</v>
+        <v>9.07304823707816</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.12773960397421</v>
+        <v>13.25367128467781</v>
       </c>
       <c r="F16">
-        <v>25.064934071431</v>
+        <v>24.84863541853953</v>
       </c>
       <c r="G16">
-        <v>14.88642515007646</v>
+        <v>14.19909285966916</v>
       </c>
       <c r="H16">
-        <v>6.553944084368259</v>
+        <v>6.55203124529506</v>
       </c>
       <c r="I16">
-        <v>2.671623926585395</v>
+        <v>2.724342663220535</v>
       </c>
       <c r="J16">
-        <v>7.66571238846947</v>
+        <v>7.958158268760844</v>
       </c>
       <c r="K16">
-        <v>11.64226551403107</v>
+        <v>11.42300755373606</v>
       </c>
       <c r="L16">
-        <v>6.286541280093324</v>
+        <v>9.923170726243224</v>
       </c>
       <c r="M16">
-        <v>13.52144903922484</v>
+        <v>6.924810977684452</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.306824152155394</v>
       </c>
       <c r="O16">
-        <v>13.83469167589451</v>
+        <v>13.5409424918611</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.4600993502321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.93737792177459</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.26679587074816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.76713426381559</v>
+        <v>14.74927496388227</v>
       </c>
       <c r="C17">
-        <v>8.970916583688572</v>
+        <v>8.959421017126374</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.8805580078909</v>
+        <v>13.98964045757924</v>
       </c>
       <c r="F17">
-        <v>25.7454315172057</v>
+        <v>25.56274561036973</v>
       </c>
       <c r="G17">
-        <v>15.28396995414459</v>
+        <v>14.35879030849201</v>
       </c>
       <c r="H17">
-        <v>5.820206869982949</v>
+        <v>5.817190826529097</v>
       </c>
       <c r="I17">
-        <v>2.629326285368114</v>
+        <v>2.688745037257632</v>
       </c>
       <c r="J17">
-        <v>7.754389535759549</v>
+        <v>8.096490722805241</v>
       </c>
       <c r="K17">
-        <v>11.79977001379504</v>
+        <v>11.57550454053031</v>
       </c>
       <c r="L17">
-        <v>6.127127378377838</v>
+        <v>10.01684665880069</v>
       </c>
       <c r="M17">
-        <v>13.26091633140444</v>
+        <v>7.04363122456607</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.139788801848168</v>
       </c>
       <c r="O17">
-        <v>14.09040726338073</v>
+        <v>13.28702422537574</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.65150362037091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.183481617127</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.47462069003166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.48091762116335</v>
+        <v>14.45744065810994</v>
       </c>
       <c r="C18">
-        <v>8.874434801907819</v>
+        <v>8.886522041361214</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.54733966697342</v>
+        <v>15.65834224218323</v>
       </c>
       <c r="F18">
-        <v>27.31974341060585</v>
+        <v>27.1336001456609</v>
       </c>
       <c r="G18">
-        <v>15.92769366159087</v>
+        <v>14.8818454582631</v>
       </c>
       <c r="H18">
-        <v>4.565843709519283</v>
+        <v>4.561614352786506</v>
       </c>
       <c r="I18">
-        <v>2.607816983009552</v>
+        <v>2.668900107889049</v>
       </c>
       <c r="J18">
-        <v>7.863749439276766</v>
+        <v>8.220210474722579</v>
       </c>
       <c r="K18">
-        <v>11.97914106176817</v>
+        <v>11.73495479982065</v>
       </c>
       <c r="L18">
-        <v>5.915245428367304</v>
+        <v>10.1241882856973</v>
       </c>
       <c r="M18">
-        <v>13.05101843695588</v>
+        <v>7.172886515251683</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.923195906180117</v>
       </c>
       <c r="O18">
-        <v>14.86706456101014</v>
+        <v>13.08414730721086</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.91577276816505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.96423983590414</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.72794848095596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.26088699425217</v>
+        <v>14.22587175552592</v>
       </c>
       <c r="C19">
-        <v>8.849283855441595</v>
+        <v>8.899512255430739</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.87353150850503</v>
+        <v>17.99716814890418</v>
       </c>
       <c r="F19">
-        <v>29.47426323901469</v>
+        <v>29.262492145064</v>
       </c>
       <c r="G19">
-        <v>16.68210057146202</v>
+        <v>15.56437701739984</v>
       </c>
       <c r="H19">
-        <v>3.066272017345977</v>
+        <v>3.060384025177661</v>
       </c>
       <c r="I19">
-        <v>2.616145324857861</v>
+        <v>2.677285233179682</v>
       </c>
       <c r="J19">
-        <v>7.975998970679436</v>
+        <v>8.326090749973794</v>
       </c>
       <c r="K19">
-        <v>12.15755676912958</v>
+        <v>11.88405228303606</v>
       </c>
       <c r="L19">
-        <v>5.722924949007302</v>
+        <v>10.22988463954797</v>
       </c>
       <c r="M19">
-        <v>12.90888204557806</v>
+        <v>7.297187907291562</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.726374262360917</v>
       </c>
       <c r="O19">
-        <v>16.006803365025</v>
+        <v>12.94955104104108</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.20546880709901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.11636306754541</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.99029875141437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.26867834832331</v>
+        <v>14.20555823324557</v>
       </c>
       <c r="C20">
-        <v>8.949494577679575</v>
+        <v>9.075945972237324</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.76698284191162</v>
+        <v>21.93557317023452</v>
       </c>
       <c r="F20">
-        <v>33.14651670639254</v>
+        <v>32.84873625287948</v>
       </c>
       <c r="G20">
-        <v>17.82135271157814</v>
+        <v>16.7850652018965</v>
       </c>
       <c r="H20">
-        <v>1.72051085289701</v>
+        <v>1.727423259131609</v>
       </c>
       <c r="I20">
-        <v>2.689091262997804</v>
+        <v>2.741490613957064</v>
       </c>
       <c r="J20">
-        <v>8.107077621002295</v>
+        <v>8.373181096567684</v>
       </c>
       <c r="K20">
-        <v>12.35302308095885</v>
+        <v>12.01454951954281</v>
       </c>
       <c r="L20">
-        <v>5.588281020389417</v>
+        <v>10.31689520490313</v>
       </c>
       <c r="M20">
-        <v>12.95206136581731</v>
+        <v>7.441780366930213</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.583877878779229</v>
       </c>
       <c r="O20">
-        <v>18.03709939940274</v>
+        <v>13.00203033587556</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.59544518317131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.18063777910837</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.30053914526502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.03405570882452</v>
+        <v>14.94606361585868</v>
       </c>
       <c r="C21">
-        <v>9.296088329280309</v>
+        <v>9.434367335412336</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.12033273368676</v>
+        <v>23.43375024790753</v>
       </c>
       <c r="F21">
-        <v>34.67292027481022</v>
+        <v>34.14158067239268</v>
       </c>
       <c r="G21">
-        <v>17.93005426774252</v>
+        <v>18.28772854931243</v>
       </c>
       <c r="H21">
-        <v>2.000959355497078</v>
+        <v>1.998381808324065</v>
       </c>
       <c r="I21">
-        <v>2.838361871991794</v>
+        <v>2.867283751262645</v>
       </c>
       <c r="J21">
-        <v>8.023982387589532</v>
+        <v>7.888552256145386</v>
       </c>
       <c r="K21">
-        <v>12.14900658359001</v>
+        <v>11.70463150935064</v>
       </c>
       <c r="L21">
-        <v>5.653582177934361</v>
+        <v>10.08448111595084</v>
       </c>
       <c r="M21">
-        <v>13.54737787466536</v>
+        <v>7.295581087966243</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.653263887527974</v>
       </c>
       <c r="O21">
-        <v>19.12216814407599</v>
+        <v>13.58030113548178</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.50812127306709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.33670066235368</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.0079206528313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53112958296493</v>
+        <v>15.42922259883191</v>
       </c>
       <c r="C22">
-        <v>9.493324248098519</v>
+        <v>9.631177568630459</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.80013682811066</v>
+        <v>24.21223236465912</v>
       </c>
       <c r="F22">
-        <v>35.51444024983532</v>
+        <v>34.82533980294141</v>
       </c>
       <c r="G22">
-        <v>18.00298988661026</v>
+        <v>19.42983016120033</v>
       </c>
       <c r="H22">
-        <v>2.172887555822617</v>
+        <v>2.164370766246142</v>
       </c>
       <c r="I22">
-        <v>2.928375239163031</v>
+        <v>2.941207203691136</v>
       </c>
       <c r="J22">
-        <v>7.970614063420657</v>
+        <v>7.653114392284191</v>
       </c>
       <c r="K22">
-        <v>12.0202450221258</v>
+        <v>11.49986190800415</v>
       </c>
       <c r="L22">
-        <v>5.69897363708577</v>
+        <v>9.942154106198984</v>
       </c>
       <c r="M22">
-        <v>13.92445015047796</v>
+        <v>7.204945647816791</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.702264667161772</v>
       </c>
       <c r="O22">
-        <v>19.71714272443797</v>
+        <v>13.94517700411838</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.45294732641351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.97826665402568</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.80507680880235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.27573186871257</v>
+        <v>15.18016670176595</v>
       </c>
       <c r="C23">
-        <v>9.364488483828543</v>
+        <v>9.510698756094527</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.43100151562515</v>
+        <v>23.7763028032551</v>
       </c>
       <c r="F23">
-        <v>35.08400934067549</v>
+        <v>34.49927471199361</v>
       </c>
       <c r="G23">
-        <v>18.00226865877286</v>
+        <v>18.68244675748059</v>
       </c>
       <c r="H23">
-        <v>2.081734964488068</v>
+        <v>2.076722138442764</v>
       </c>
       <c r="I23">
-        <v>2.875762122361172</v>
+        <v>2.896400521220661</v>
       </c>
       <c r="J23">
-        <v>8.004925487039326</v>
+        <v>7.79924104987645</v>
       </c>
       <c r="K23">
-        <v>12.10253690591485</v>
+        <v>11.63057587902049</v>
       </c>
       <c r="L23">
-        <v>5.674830235151103</v>
+        <v>10.02903763191611</v>
       </c>
       <c r="M23">
-        <v>13.72003252336821</v>
+        <v>7.274704192047536</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.675816398460134</v>
       </c>
       <c r="O23">
-        <v>19.39350451023005</v>
+        <v>13.75011908215104</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.49748224362015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.62429200888842</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.94682002556473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.25157772111216</v>
+        <v>14.18717227399114</v>
       </c>
       <c r="C24">
-        <v>8.904954638305941</v>
+        <v>9.033206891659452</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.99706144480125</v>
+        <v>22.16631982556582</v>
       </c>
       <c r="F24">
-        <v>33.3954455169776</v>
+        <v>33.09583392966255</v>
       </c>
       <c r="G24">
-        <v>17.96979508886162</v>
+        <v>16.91741815889017</v>
       </c>
       <c r="H24">
-        <v>1.728472397843699</v>
+        <v>1.735427501634494</v>
       </c>
       <c r="I24">
-        <v>2.680739416284194</v>
+        <v>2.731012322835097</v>
       </c>
       <c r="J24">
-        <v>8.13031824612542</v>
+        <v>8.396985640392499</v>
       </c>
       <c r="K24">
-        <v>12.39897361339791</v>
+        <v>12.0548793909484</v>
       </c>
       <c r="L24">
-        <v>5.581037941628211</v>
+        <v>10.34508850555486</v>
       </c>
       <c r="M24">
-        <v>12.92445963252467</v>
+        <v>7.4757019044426</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.575525332022415</v>
       </c>
       <c r="O24">
-        <v>18.13366984461862</v>
+        <v>12.97534103611499</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.65463379553502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.27829812678481</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.35624538269598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.05249036411034</v>
+        <v>13.03473677876209</v>
       </c>
       <c r="C25">
-        <v>8.388177949030602</v>
+        <v>8.387187912764707</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.34684728100385</v>
+        <v>20.48396800340669</v>
       </c>
       <c r="F25">
-        <v>31.515550750018</v>
+        <v>31.2967549885748</v>
       </c>
       <c r="G25">
-        <v>18.00412418145953</v>
+        <v>16.93333315782784</v>
       </c>
       <c r="H25">
-        <v>1.796368351804734</v>
+        <v>1.780706311557502</v>
       </c>
       <c r="I25">
-        <v>2.519111818083744</v>
+        <v>2.539714036110883</v>
       </c>
       <c r="J25">
-        <v>8.276560195994962</v>
+        <v>8.56036383594923</v>
       </c>
       <c r="K25">
-        <v>12.73466286419438</v>
+        <v>12.41054832768045</v>
       </c>
       <c r="L25">
-        <v>5.474586116800896</v>
+        <v>10.64849695559432</v>
       </c>
       <c r="M25">
-        <v>12.00670493327709</v>
+        <v>7.643334705238229</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.464601223489334</v>
       </c>
       <c r="O25">
-        <v>16.67537482230567</v>
+        <v>12.04716793085325</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.85230405146189</v>
+        <v>16.78835210847264</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.6049772997649</v>
       </c>
     </row>
   </sheetData>
